--- a/documentos/ciclo1/TASK_TEAM.xlsx
+++ b/documentos/ciclo1/TASK_TEAM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
   <si>
     <t>TSPi Example Task Planning Template - Form TASK</t>
   </si>
@@ -147,9 +147,6 @@
     <t>Management and miscellaneous(reuniones)</t>
   </si>
   <si>
-    <t>Introducción de los requerimientos</t>
-  </si>
-  <si>
     <t>Requerimientos funcionales</t>
   </si>
   <si>
@@ -160,9 +157,6 @@
   </si>
   <si>
     <t>Restricciones</t>
-  </si>
-  <si>
-    <t>Referencias y contexto</t>
   </si>
   <si>
     <t>Plan de pruebas de sistema</t>
@@ -559,46 +553,46 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -902,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S52"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,16 +923,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -947,9 +941,9 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
@@ -963,35 +957,35 @@
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="33">
-        <v>1</v>
-      </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
+      <c r="F5" s="35">
+        <v>1</v>
+      </c>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -1026,172 +1020,172 @@
       <c r="S7" s="26"/>
     </row>
     <row r="8" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="J8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="K8" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="38" t="s">
+      <c r="L8" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="30" t="s">
+      <c r="M8" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="30" t="s">
+      <c r="N8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="30" t="s">
+      <c r="O8" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="30" t="s">
+      <c r="P8" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="30" t="s">
+      <c r="Q8" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="30" t="s">
+      <c r="R8" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="30" t="s">
+      <c r="S8" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
     </row>
     <row r="13" spans="1:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
     </row>
     <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
-        <v>76</v>
+      <c r="A14" s="38" t="s">
+        <v>74</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="5" t="s">
@@ -1224,7 +1218,7 @@
         <v>10</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M14" s="21">
         <v>2</v>
@@ -1233,26 +1227,26 @@
         <v>1</v>
       </c>
       <c r="O14" s="21">
-        <f>ROUND(J14/J51*100,1)</f>
-        <v>6.3</v>
+        <f>ROUND(J14/J49*100,1)</f>
+        <v>6.4</v>
       </c>
       <c r="P14" s="17">
         <f>O14</f>
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Q14" s="21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R14" s="21">
         <f>Q14</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S14" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="9"/>
       <c r="C15" s="5" t="s">
         <v>32</v>
@@ -1276,7 +1270,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="21">
-        <f t="shared" ref="J15:J50" si="0">SUM(E15:I15)</f>
+        <f t="shared" ref="J15:J48" si="0">SUM(E15:I15)</f>
         <v>5</v>
       </c>
       <c r="K15" s="21">
@@ -1284,7 +1278,7 @@
         <v>15</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M15" s="21">
         <v>5</v>
@@ -1293,26 +1287,26 @@
         <v>1</v>
       </c>
       <c r="O15" s="21">
-        <f>ROUND(J15/J51*100,1)</f>
+        <f>ROUND(J15/J49*100,1)</f>
         <v>3.2</v>
       </c>
       <c r="P15" s="21">
         <f>SUM(O15+P14)</f>
-        <v>9.5</v>
+        <v>9.6000000000000014</v>
       </c>
       <c r="Q15" s="21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R15" s="21">
         <f>Q15+R14</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="S15" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="9"/>
       <c r="C16" s="5" t="s">
         <v>33</v>
@@ -1344,7 +1338,7 @@
         <v>16.25</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M16" s="21">
         <v>1</v>
@@ -1353,27 +1347,27 @@
         <v>1</v>
       </c>
       <c r="O16" s="21">
-        <f>ROUND(J16/J51*100,1)</f>
+        <f>ROUND(J16/J49*100,1)</f>
         <v>0.8</v>
       </c>
       <c r="P16" s="21">
         <f>SUM(O16+P15)</f>
-        <v>10.3</v>
+        <v>10.400000000000002</v>
       </c>
       <c r="Q16" s="21">
         <v>1</v>
       </c>
       <c r="R16" s="21">
         <f t="shared" ref="R16:R18" si="1">Q16+R15</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="S16" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
-        <v>67</v>
+      <c r="A17" s="38" t="s">
+        <v>65</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="5" t="s">
@@ -1402,11 +1396,11 @@
         <v>5</v>
       </c>
       <c r="K17" s="21">
-        <f t="shared" ref="K17:K50" si="2">J17+K16</f>
+        <f t="shared" ref="K17:K48" si="2">J17+K16</f>
         <v>21.25</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M17" s="21">
         <v>1</v>
@@ -1415,26 +1409,26 @@
         <v>3</v>
       </c>
       <c r="O17" s="21">
-        <f>ROUND(J17/J51*100,1)</f>
+        <f>ROUND(J17/J49*100,1)</f>
         <v>3.2</v>
       </c>
       <c r="P17" s="21">
-        <f t="shared" ref="P17:P50" si="3">SUM(O17+P16)</f>
-        <v>13.5</v>
+        <f t="shared" ref="P17:P48" si="3">SUM(O17+P16)</f>
+        <v>13.600000000000001</v>
       </c>
       <c r="Q17" s="21">
         <v>7</v>
       </c>
       <c r="R17" s="21">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="S17" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="9"/>
       <c r="C18" s="5" t="s">
         <v>35</v>
@@ -1466,7 +1460,7 @@
         <v>26.75</v>
       </c>
       <c r="L18" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M18" s="21">
         <v>1</v>
@@ -1475,29 +1469,29 @@
         <v>3</v>
       </c>
       <c r="O18" s="21">
-        <f>ROUND(J18/J51*100,1)</f>
+        <f>ROUND(J18/J49*100,1)</f>
         <v>3.5</v>
       </c>
       <c r="P18" s="21">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="Q18" s="21">
         <v>4</v>
       </c>
       <c r="R18" s="21">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S18" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="9"/>
       <c r="C19" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D19" s="19">
         <v>1</v>
@@ -1526,7 +1520,7 @@
         <v>27.55</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M19" s="21">
         <v>2</v>
@@ -1535,20 +1529,20 @@
         <v>3</v>
       </c>
       <c r="O19" s="21">
-        <f>ROUND(J19/J51*100,1)</f>
+        <f>ROUND(J19/J49*100,1)</f>
         <v>0.5</v>
       </c>
       <c r="P19" s="21">
         <f t="shared" ref="P19" si="6">SUM(O19+P18)</f>
-        <v>17.5</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="Q19" s="21"/>
       <c r="R19" s="21"/>
       <c r="S19" s="21"/>
     </row>
     <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
-        <v>68</v>
+      <c r="A20" s="38" t="s">
+        <v>66</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="5" t="s">
@@ -1581,7 +1575,7 @@
         <v>30.55</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M20" s="21">
         <v>1</v>
@@ -1590,19 +1584,19 @@
         <v>3</v>
       </c>
       <c r="O20" s="21">
-        <f>ROUND(J20/J51*100,1)</f>
+        <f>ROUND(J20/J49*100,1)</f>
         <v>1.9</v>
       </c>
       <c r="P20" s="21">
         <f>SUM(O20+P19)</f>
-        <v>19.399999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="Q20" s="21"/>
       <c r="R20" s="21"/>
       <c r="S20" s="21"/>
     </row>
     <row r="21" spans="1:19" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="9"/>
       <c r="C21" s="5" t="s">
         <v>37</v>
@@ -1634,7 +1628,7 @@
         <v>32.049999999999997</v>
       </c>
       <c r="L21" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M21" s="21">
         <v>0.5</v>
@@ -1643,12 +1637,12 @@
         <v>3</v>
       </c>
       <c r="O21" s="21">
-        <f>ROUND(J21/J51*100,1)</f>
-        <v>0.9</v>
+        <f>ROUND(J21/J49*100,1)</f>
+        <v>1</v>
       </c>
       <c r="P21" s="21">
         <f t="shared" si="3"/>
-        <v>20.299999999999997</v>
+        <v>20.5</v>
       </c>
       <c r="Q21" s="21">
         <v>2</v>
@@ -1657,7 +1651,7 @@
       <c r="S21" s="21"/>
     </row>
     <row r="22" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="9"/>
       <c r="C22" s="5" t="s">
         <v>38</v>
@@ -1689,7 +1683,7 @@
         <v>34.75</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M22" s="21">
         <v>1</v>
@@ -1698,19 +1692,19 @@
         <v>3</v>
       </c>
       <c r="O22" s="21">
-        <f>ROUND(J22/J51*100,1)</f>
+        <f>ROUND(J22/J49*100,1)</f>
         <v>1.7</v>
       </c>
       <c r="P22" s="21">
         <f t="shared" si="3"/>
-        <v>21.999999999999996</v>
+        <v>22.2</v>
       </c>
       <c r="Q22" s="21"/>
       <c r="R22" s="8"/>
       <c r="S22" s="21"/>
     </row>
     <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="9"/>
       <c r="C23" s="5" t="s">
         <v>39</v>
@@ -1742,7 +1736,7 @@
         <v>37.75</v>
       </c>
       <c r="L23" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M23" s="21">
         <v>1</v>
@@ -1751,19 +1745,19 @@
         <v>3</v>
       </c>
       <c r="O23" s="21">
-        <f>ROUND(J23/J51*100,1)</f>
+        <f>ROUND(J23/J49*100,1)</f>
         <v>1.9</v>
       </c>
       <c r="P23" s="21">
         <f>SUM(O23+P22)</f>
-        <v>23.899999999999995</v>
+        <v>24.099999999999998</v>
       </c>
       <c r="Q23" s="21"/>
       <c r="R23" s="8"/>
       <c r="S23" s="21"/>
     </row>
     <row r="24" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="9"/>
       <c r="C24" s="5" t="s">
         <v>40</v>
@@ -1795,7 +1789,7 @@
         <v>40.450000000000003</v>
       </c>
       <c r="L24" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M24" s="21">
         <v>3</v>
@@ -1804,19 +1798,19 @@
         <v>3</v>
       </c>
       <c r="O24" s="21">
-        <f>ROUND(J24/J51*100,1)</f>
+        <f>ROUND(J24/J49*100,1)</f>
         <v>1.7</v>
       </c>
       <c r="P24" s="21">
         <f t="shared" si="3"/>
-        <v>25.599999999999994</v>
+        <v>25.799999999999997</v>
       </c>
       <c r="Q24" s="21"/>
       <c r="R24" s="8"/>
       <c r="S24" s="21"/>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="9"/>
       <c r="C25" s="5" t="s">
         <v>41</v>
@@ -1848,7 +1842,7 @@
         <v>43.25</v>
       </c>
       <c r="L25" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M25" s="21">
         <v>2</v>
@@ -1857,19 +1851,19 @@
         <v>3</v>
       </c>
       <c r="O25" s="21">
-        <f>ROUND(J25/J51*100,1)</f>
+        <f>ROUND(J25/J49*100,1)</f>
         <v>1.8</v>
       </c>
       <c r="P25" s="21">
         <f t="shared" si="3"/>
-        <v>27.399999999999995</v>
+        <v>27.599999999999998</v>
       </c>
       <c r="Q25" s="21"/>
       <c r="R25" s="8"/>
       <c r="S25" s="21"/>
     </row>
     <row r="26" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="9"/>
       <c r="C26" s="5" t="s">
         <v>42</v>
@@ -1901,43 +1895,43 @@
         <v>58.25</v>
       </c>
       <c r="L26" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M26" s="21">
         <v>5</v>
       </c>
       <c r="N26" s="8"/>
       <c r="O26" s="21">
-        <f>ROUND(J26/J51*100,1)</f>
-        <v>9.5</v>
+        <f>ROUND(J26/J49*100,1)</f>
+        <v>9.6999999999999993</v>
       </c>
       <c r="P26" s="21">
         <f t="shared" si="3"/>
-        <v>36.899999999999991</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="Q26" s="21"/>
       <c r="R26" s="8"/>
       <c r="S26" s="21"/>
     </row>
     <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="27" t="s">
-        <v>69</v>
+      <c r="A27" s="40" t="s">
+        <v>67</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D27" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" s="19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27" s="19">
         <v>0</v>
@@ -1947,84 +1941,84 @@
       </c>
       <c r="J27" s="21">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K27" s="21">
-        <f t="shared" si="2"/>
-        <v>60.25</v>
+        <f>J27+K26</f>
+        <v>64.25</v>
       </c>
       <c r="L27" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M27" s="21">
         <v>1</v>
       </c>
       <c r="N27" s="8"/>
       <c r="O27" s="21">
-        <f>ROUND(J27/J51*100,1)</f>
-        <v>1.3</v>
+        <f>ROUND(J27/J49*100,1)</f>
+        <v>3.9</v>
       </c>
       <c r="P27" s="21">
-        <f t="shared" si="3"/>
-        <v>38.199999999999989</v>
+        <f>SUM(O27+P26)</f>
+        <v>41.199999999999996</v>
       </c>
       <c r="Q27" s="21"/>
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
     </row>
     <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="9"/>
       <c r="C28" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D28" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" s="19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H28" s="19">
         <v>0</v>
       </c>
       <c r="I28" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="21">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K28" s="21">
         <f t="shared" si="2"/>
-        <v>66.25</v>
+        <v>67.25</v>
       </c>
       <c r="L28" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M28" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N28" s="8"/>
       <c r="O28" s="21">
-        <f>ROUND(J28/J51*100,1)</f>
-        <v>3.8</v>
+        <f>ROUND(J28/J49*100,1)</f>
+        <v>1.9</v>
       </c>
       <c r="P28" s="21">
         <f t="shared" si="3"/>
-        <v>41.999999999999986</v>
-      </c>
-      <c r="Q28" s="21"/>
+        <v>43.099999999999994</v>
+      </c>
+      <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
     </row>
     <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="9"/>
       <c r="C29" s="5" t="s">
         <v>45</v>
@@ -2033,49 +2027,49 @@
         <v>1</v>
       </c>
       <c r="E29" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="19">
         <v>0</v>
       </c>
       <c r="H29" s="19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" s="21">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K29" s="21">
-        <f t="shared" si="2"/>
-        <v>69.25</v>
+        <f>J29+K28</f>
+        <v>71.25</v>
       </c>
       <c r="L29" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M29" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N29" s="8"/>
       <c r="O29" s="21">
-        <f>ROUND(J29/J51*100,1)</f>
-        <v>1.9</v>
+        <f>ROUND(J29/J49*100,1)</f>
+        <v>2.6</v>
       </c>
       <c r="P29" s="21">
-        <f t="shared" si="3"/>
-        <v>43.899999999999984</v>
+        <f>SUM(O29+P28)</f>
+        <v>45.699999999999996</v>
       </c>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
     </row>
     <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="9"/>
       <c r="C30" s="5" t="s">
         <v>46</v>
@@ -2093,91 +2087,93 @@
         <v>0</v>
       </c>
       <c r="H30" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" s="21">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K30" s="21">
-        <f>J30+K29</f>
+        <f t="shared" si="2"/>
         <v>73.25</v>
       </c>
       <c r="L30" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M30" s="21">
         <v>1</v>
       </c>
       <c r="N30" s="8"/>
       <c r="O30" s="21">
-        <f>ROUND(J30/J51*100,1)</f>
-        <v>2.5</v>
+        <f>ROUND(J30/J49*100,1)</f>
+        <v>1.3</v>
       </c>
       <c r="P30" s="21">
-        <f>SUM(O30+P29)</f>
-        <v>46.399999999999984</v>
+        <f t="shared" si="3"/>
+        <v>46.999999999999993</v>
       </c>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
     </row>
     <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="28"/>
+      <c r="A31" s="38" t="s">
+        <v>68</v>
+      </c>
       <c r="B31" s="9"/>
       <c r="C31" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D31" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="19">
         <v>0</v>
       </c>
       <c r="G31" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="19">
         <v>1</v>
       </c>
       <c r="I31" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" s="21">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K31" s="21">
-        <f t="shared" si="2"/>
-        <v>75.25</v>
+        <f>J31+K30</f>
+        <v>76.25</v>
       </c>
       <c r="L31" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M31" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N31" s="8"/>
       <c r="O31" s="21">
-        <f>ROUND(J31/J51*100,1)</f>
-        <v>1.3</v>
+        <f>ROUND(J31/J49*100,1)</f>
+        <v>1.9</v>
       </c>
       <c r="P31" s="21">
-        <f t="shared" si="3"/>
-        <v>47.699999999999982</v>
+        <f>SUM(O31+P30)</f>
+        <v>48.899999999999991</v>
       </c>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
     </row>
     <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="9"/>
       <c r="C32" s="5" t="s">
         <v>48</v>
@@ -2189,48 +2185,46 @@
         <v>0</v>
       </c>
       <c r="F32" s="19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G32" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="19">
         <v>0</v>
       </c>
       <c r="I32" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" s="21">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K32" s="21">
         <f t="shared" si="2"/>
-        <v>76.25</v>
+        <v>79.25</v>
       </c>
       <c r="L32" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M32" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N32" s="8"/>
       <c r="O32" s="21">
-        <f>ROUND(J32/J51*100,1)</f>
-        <v>0.6</v>
+        <f>ROUND(J32/J49*100,1)</f>
+        <v>1.9</v>
       </c>
       <c r="P32" s="21">
         <f t="shared" si="3"/>
-        <v>48.299999999999983</v>
+        <v>50.79999999999999</v>
       </c>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
     </row>
     <row r="33" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="27" t="s">
-        <v>70</v>
-      </c>
+      <c r="A33" s="40"/>
       <c r="B33" s="9"/>
       <c r="C33" s="5" t="s">
         <v>49</v>
@@ -2245,43 +2239,43 @@
         <v>0</v>
       </c>
       <c r="G33" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="18">
         <v>0</v>
       </c>
       <c r="J33" s="21">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K33" s="21">
         <f t="shared" si="2"/>
-        <v>79.25</v>
+        <v>80.25</v>
       </c>
       <c r="L33" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M33" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N33" s="8"/>
       <c r="O33" s="21">
-        <f>ROUND(J33/J51*100,1)</f>
-        <v>1.9</v>
+        <f>ROUND(J33/J49*100,1)</f>
+        <v>0.6</v>
       </c>
       <c r="P33" s="21">
         <f t="shared" si="3"/>
-        <v>50.199999999999982</v>
+        <v>51.399999999999991</v>
       </c>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
     </row>
     <row r="34" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="9"/>
       <c r="C34" s="5" t="s">
         <v>50</v>
@@ -2290,16 +2284,16 @@
         <v>1</v>
       </c>
       <c r="E34" s="19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F34" s="19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G34" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="18">
         <v>0</v>
@@ -2310,101 +2304,103 @@
       </c>
       <c r="K34" s="21">
         <f t="shared" si="2"/>
-        <v>82.25</v>
+        <v>83.25</v>
       </c>
       <c r="L34" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M34" s="21">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="N34" s="8"/>
       <c r="O34" s="21">
-        <f>ROUND(J34/J51*100,1)</f>
+        <f>ROUND(J34/J49*100,1)</f>
         <v>1.9</v>
       </c>
       <c r="P34" s="21">
         <f t="shared" si="3"/>
-        <v>52.09999999999998</v>
+        <v>53.29999999999999</v>
       </c>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
     </row>
     <row r="35" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="28"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="9"/>
       <c r="C35" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D35" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" s="19">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G35" s="19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H35" s="19">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I35" s="18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J35" s="21">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="K35" s="21">
         <f t="shared" si="2"/>
-        <v>83.25</v>
+        <v>88.75</v>
       </c>
       <c r="L35" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M35" s="21">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="N35" s="8"/>
       <c r="O35" s="21">
-        <f>ROUND(J35/J51*100,1)</f>
-        <v>0.6</v>
+        <f>ROUND(J35/J49*100,1)</f>
+        <v>3.5</v>
       </c>
       <c r="P35" s="21">
         <f t="shared" si="3"/>
-        <v>52.699999999999982</v>
+        <v>56.79999999999999</v>
       </c>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
     </row>
     <row r="36" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="28"/>
+      <c r="A36" s="38" t="s">
+        <v>69</v>
+      </c>
       <c r="B36" s="9"/>
       <c r="C36" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D36" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="19">
         <v>0</v>
       </c>
       <c r="H36" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" s="21">
         <f t="shared" si="0"/>
@@ -2412,29 +2408,29 @@
       </c>
       <c r="K36" s="21">
         <f t="shared" si="2"/>
-        <v>86.25</v>
+        <v>91.75</v>
       </c>
       <c r="L36" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M36" s="21">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="N36" s="8"/>
       <c r="O36" s="21">
-        <f>ROUND(J36/J51*100,1)</f>
+        <f>ROUND(J36/J49*100,1)</f>
         <v>1.9</v>
       </c>
       <c r="P36" s="21">
         <f t="shared" si="3"/>
-        <v>54.59999999999998</v>
+        <v>58.699999999999989</v>
       </c>
       <c r="Q36" s="8"/>
       <c r="R36" s="8"/>
       <c r="S36" s="8"/>
     </row>
     <row r="37" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="29"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="9"/>
       <c r="C37" s="5" t="s">
         <v>53</v>
@@ -2443,102 +2439,96 @@
         <v>1</v>
       </c>
       <c r="E37" s="19">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F37" s="19">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G37" s="19">
         <v>2</v>
       </c>
       <c r="H37" s="19">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I37" s="18">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J37" s="21">
         <f t="shared" si="0"/>
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="K37" s="21">
         <f t="shared" si="2"/>
-        <v>91.75</v>
+        <v>94.25</v>
       </c>
       <c r="L37" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M37" s="21">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="N37" s="8"/>
       <c r="O37" s="21">
-        <f>ROUND(J37/J51*100,1)</f>
-        <v>3.5</v>
+        <f>ROUND(J37/J49*100,1)</f>
+        <v>1.6</v>
       </c>
       <c r="P37" s="21">
         <f t="shared" si="3"/>
-        <v>58.09999999999998</v>
+        <v>60.29999999999999</v>
       </c>
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
     </row>
     <row r="38" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="27" t="s">
-        <v>71</v>
-      </c>
+      <c r="A38" s="40"/>
       <c r="B38" s="9"/>
       <c r="C38" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D38" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="19">
         <v>0</v>
       </c>
       <c r="I38" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" s="21">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K38" s="21">
         <f t="shared" si="2"/>
-        <v>94.75</v>
-      </c>
-      <c r="L38" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="M38" s="21">
-        <v>1</v>
-      </c>
+        <v>95.25</v>
+      </c>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
       <c r="N38" s="8"/>
       <c r="O38" s="21">
-        <f>ROUND(J38/J51*100,1)</f>
-        <v>1.9</v>
+        <f>ROUND(J38/J49*100,1)</f>
+        <v>0.6</v>
       </c>
       <c r="P38" s="21">
         <f t="shared" si="3"/>
-        <v>59.999999999999979</v>
+        <v>60.899999999999991</v>
       </c>
       <c r="Q38" s="8"/>
       <c r="R38" s="8"/>
       <c r="S38" s="8"/>
     </row>
     <row r="39" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="28"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="9"/>
       <c r="C39" s="5" t="s">
         <v>55</v>
@@ -2547,55 +2537,53 @@
         <v>1</v>
       </c>
       <c r="E39" s="19">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F39" s="19">
         <v>0</v>
       </c>
       <c r="G39" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" s="19">
         <v>0</v>
       </c>
       <c r="I39" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" s="21">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K39" s="21">
         <f t="shared" si="2"/>
         <v>97.25</v>
       </c>
       <c r="L39" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="M39" s="21">
-        <v>3</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="M39" s="21"/>
       <c r="N39" s="8"/>
       <c r="O39" s="21">
-        <f>ROUND(J39/J51*100,1)</f>
-        <v>1.6</v>
+        <f>ROUND(J39/J49*100,1)</f>
+        <v>1.3</v>
       </c>
       <c r="P39" s="21">
         <f t="shared" si="3"/>
-        <v>61.59999999999998</v>
+        <v>62.199999999999989</v>
       </c>
       <c r="Q39" s="8"/>
       <c r="R39" s="8"/>
       <c r="S39" s="8"/>
     </row>
     <row r="40" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="28"/>
+      <c r="A40" s="40"/>
       <c r="B40" s="9"/>
       <c r="C40" s="5" t="s">
         <v>56</v>
       </c>
       <c r="D40" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" s="19">
         <v>0</v>
@@ -2604,196 +2592,200 @@
         <v>0</v>
       </c>
       <c r="G40" s="19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H40" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="21">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K40" s="21">
         <f t="shared" si="2"/>
-        <v>98.25</v>
-      </c>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
+        <v>99.75</v>
+      </c>
+      <c r="L40" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="M40" s="21">
+        <v>0.7</v>
+      </c>
       <c r="N40" s="8"/>
       <c r="O40" s="21">
-        <f>ROUND(J40/J51*100,1)</f>
-        <v>0.6</v>
+        <f>ROUND(J40/J49*100,1)</f>
+        <v>1.6</v>
       </c>
       <c r="P40" s="21">
         <f t="shared" si="3"/>
-        <v>62.199999999999982</v>
+        <v>63.79999999999999</v>
       </c>
       <c r="Q40" s="8"/>
       <c r="R40" s="8"/>
       <c r="S40" s="8"/>
     </row>
     <row r="41" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="28"/>
+      <c r="A41" s="40"/>
       <c r="B41" s="9"/>
       <c r="C41" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D41" s="19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E41" s="19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F41" s="19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G41" s="19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H41" s="19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I41" s="18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J41" s="21">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="K41" s="21">
         <f t="shared" si="2"/>
-        <v>100.25</v>
+        <v>124.75</v>
       </c>
       <c r="L41" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="M41" s="21"/>
+        <v>73</v>
+      </c>
+      <c r="M41" s="21">
+        <v>646</v>
+      </c>
       <c r="N41" s="8"/>
       <c r="O41" s="21">
-        <f>ROUND(J41/J51*100,1)</f>
-        <v>1.3</v>
+        <f>ROUND(J41/J49*100,1)</f>
+        <v>16.100000000000001</v>
       </c>
       <c r="P41" s="21">
         <f t="shared" si="3"/>
-        <v>63.499999999999979</v>
+        <v>79.899999999999991</v>
       </c>
       <c r="Q41" s="8"/>
       <c r="R41" s="8"/>
       <c r="S41" s="8"/>
     </row>
     <row r="42" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="28"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="9"/>
       <c r="C42" s="5" t="s">
         <v>58</v>
       </c>
       <c r="D42" s="19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E42" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" s="19">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H42" s="19">
         <v>1</v>
       </c>
       <c r="I42" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" s="21">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K42" s="21">
         <f t="shared" si="2"/>
-        <v>102.75</v>
-      </c>
-      <c r="L42" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="M42" s="21">
-        <v>0.7</v>
-      </c>
+        <v>127.75</v>
+      </c>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
       <c r="N42" s="8"/>
       <c r="O42" s="21">
-        <f>ROUND(J42/J51*100,1)</f>
-        <v>1.6</v>
+        <f>ROUND(J42/J49*100,1)</f>
+        <v>1.9</v>
       </c>
       <c r="P42" s="21">
         <f t="shared" si="3"/>
-        <v>65.09999999999998</v>
+        <v>81.8</v>
       </c>
       <c r="Q42" s="8"/>
       <c r="R42" s="8"/>
       <c r="S42" s="8"/>
     </row>
     <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="28"/>
+      <c r="A43" s="39"/>
       <c r="B43" s="9"/>
       <c r="C43" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D43" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E43" s="19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F43" s="19">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="G43" s="19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H43" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I43" s="18">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="J43" s="21">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="K43" s="21">
         <f t="shared" si="2"/>
-        <v>127.75</v>
+        <v>129.75</v>
       </c>
       <c r="L43" s="21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M43" s="21">
-        <v>646</v>
+        <v>0.7</v>
       </c>
       <c r="N43" s="8"/>
       <c r="O43" s="21">
-        <f>ROUND(J43/J51*100,1)</f>
-        <v>15.8</v>
+        <f>ROUND(J43/J49*100,1)</f>
+        <v>1.3</v>
       </c>
       <c r="P43" s="21">
         <f t="shared" si="3"/>
-        <v>80.899999999999977</v>
+        <v>83.1</v>
       </c>
       <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
       <c r="S43" s="8"/>
     </row>
     <row r="44" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="28"/>
+      <c r="A44" s="38" t="s">
+        <v>70</v>
+      </c>
       <c r="B44" s="9"/>
       <c r="C44" s="5" t="s">
         <v>60</v>
       </c>
       <c r="D44" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E44" s="19">
         <v>1</v>
@@ -2802,51 +2794,55 @@
         <v>1</v>
       </c>
       <c r="G44" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" s="19">
         <v>1</v>
       </c>
       <c r="I44" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" s="21">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K44" s="21">
         <f t="shared" si="2"/>
-        <v>130.75</v>
-      </c>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
+        <v>134.75</v>
+      </c>
+      <c r="L44" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="M44" s="21">
+        <v>6</v>
+      </c>
       <c r="N44" s="8"/>
       <c r="O44" s="21">
-        <f>ROUND(J44/J51*100,1)</f>
-        <v>1.9</v>
+        <f>ROUND(J44/J49*100,1)</f>
+        <v>3.2</v>
       </c>
       <c r="P44" s="21">
         <f t="shared" si="3"/>
-        <v>82.799999999999983</v>
+        <v>86.3</v>
       </c>
       <c r="Q44" s="8"/>
       <c r="R44" s="8"/>
       <c r="S44" s="8"/>
     </row>
     <row r="45" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="29"/>
+      <c r="A45" s="40"/>
       <c r="B45" s="9"/>
       <c r="C45" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D45" s="19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E45" s="19">
         <v>0</v>
       </c>
       <c r="F45" s="19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G45" s="19">
         <v>0</v>
@@ -2855,60 +2851,54 @@
         <v>1</v>
       </c>
       <c r="I45" s="18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J45" s="21">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K45" s="21">
         <f t="shared" si="2"/>
-        <v>132.75</v>
-      </c>
-      <c r="L45" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="M45" s="21">
-        <v>0.7</v>
-      </c>
+        <v>137.75</v>
+      </c>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
       <c r="N45" s="8"/>
       <c r="O45" s="21">
-        <f>ROUND(J45/J51*100,1)</f>
-        <v>1.3</v>
+        <f>ROUND(J45/J49*100,1)</f>
+        <v>1.9</v>
       </c>
       <c r="P45" s="21">
         <f t="shared" si="3"/>
-        <v>84.09999999999998</v>
+        <v>88.2</v>
       </c>
       <c r="Q45" s="8"/>
       <c r="R45" s="8"/>
       <c r="S45" s="8"/>
     </row>
     <row r="46" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="27" t="s">
-        <v>72</v>
-      </c>
+      <c r="A46" s="39"/>
       <c r="B46" s="9"/>
       <c r="C46" s="5" t="s">
         <v>62</v>
       </c>
       <c r="D46" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="19">
         <v>1</v>
       </c>
       <c r="G46" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" s="21">
         <f t="shared" si="0"/>
@@ -2916,29 +2906,31 @@
       </c>
       <c r="K46" s="21">
         <f t="shared" si="2"/>
-        <v>137.75</v>
+        <v>142.75</v>
       </c>
       <c r="L46" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M46" s="21">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N46" s="8"/>
       <c r="O46" s="21">
-        <f>ROUND(J46/J51*100,1)</f>
+        <f>ROUND(J46/J49*100,1)</f>
         <v>3.2</v>
       </c>
       <c r="P46" s="21">
         <f t="shared" si="3"/>
-        <v>87.299999999999983</v>
+        <v>91.4</v>
       </c>
       <c r="Q46" s="8"/>
       <c r="R46" s="8"/>
       <c r="S46" s="8"/>
     </row>
     <row r="47" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="28"/>
+      <c r="A47" s="38" t="s">
+        <v>71</v>
+      </c>
       <c r="B47" s="9"/>
       <c r="C47" s="5" t="s">
         <v>63</v>
@@ -2947,13 +2939,13 @@
         <v>5</v>
       </c>
       <c r="E47" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="19">
         <v>1</v>
       </c>
       <c r="G47" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" s="19">
         <v>1</v>
@@ -2963,229 +2955,151 @@
       </c>
       <c r="J47" s="21">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K47" s="21">
         <f t="shared" si="2"/>
-        <v>140.75</v>
-      </c>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
+        <v>147.75</v>
+      </c>
+      <c r="L47" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="M47" s="21">
+        <v>5</v>
+      </c>
       <c r="N47" s="8"/>
       <c r="O47" s="21">
-        <f>ROUND(J47/J51*100,1)</f>
-        <v>1.9</v>
+        <f>ROUND(J47/J49*100,1)</f>
+        <v>3.2</v>
       </c>
       <c r="P47" s="21">
         <f t="shared" si="3"/>
-        <v>89.199999999999989</v>
+        <v>94.600000000000009</v>
       </c>
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
       <c r="S47" s="8"/>
     </row>
     <row r="48" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="29"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="5" t="s">
+      <c r="A48" s="39"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D48" s="19">
-        <v>2</v>
+      <c r="D48" s="20">
+        <v>5</v>
       </c>
       <c r="E48" s="19">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F48" s="19">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G48" s="19">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H48" s="19">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I48" s="18">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="J48" s="21">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="K48" s="21">
         <f t="shared" si="2"/>
-        <v>145.75</v>
-      </c>
-      <c r="L48" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="M48" s="21">
-        <v>10</v>
-      </c>
-      <c r="N48" s="8"/>
+        <v>155.25</v>
+      </c>
+      <c r="L48" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="M48" s="22">
+        <v>5</v>
+      </c>
+      <c r="N48" s="12"/>
       <c r="O48" s="21">
-        <f>ROUND(J48/J51*100,1)</f>
-        <v>3.2</v>
+        <f>ROUND(J48/J49*100,1)</f>
+        <v>4.8</v>
       </c>
       <c r="P48" s="21">
         <f t="shared" si="3"/>
-        <v>92.399999999999991</v>
+        <v>99.4</v>
       </c>
       <c r="Q48" s="8"/>
-      <c r="R48" s="8"/>
-      <c r="S48" s="8"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
     </row>
     <row r="49" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D49" s="19">
-        <v>5</v>
-      </c>
-      <c r="E49" s="19">
-        <v>1</v>
-      </c>
-      <c r="F49" s="19">
-        <v>1</v>
-      </c>
-      <c r="G49" s="19">
-        <v>1</v>
-      </c>
-      <c r="H49" s="19">
-        <v>1</v>
-      </c>
-      <c r="I49" s="18">
-        <v>1</v>
-      </c>
-      <c r="J49" s="21">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K49" s="21">
-        <f t="shared" si="2"/>
-        <v>150.75</v>
-      </c>
-      <c r="L49" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="M49" s="21">
-        <v>5</v>
-      </c>
-      <c r="N49" s="8"/>
-      <c r="O49" s="21">
-        <f>ROUND(J49/J51*100,1)</f>
-        <v>3.2</v>
-      </c>
-      <c r="P49" s="21">
-        <f t="shared" si="3"/>
-        <v>95.6</v>
-      </c>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="8"/>
-      <c r="S49" s="8"/>
-    </row>
-    <row r="50" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="29"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D50" s="20">
-        <v>5</v>
-      </c>
-      <c r="E50" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="F50" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="G50" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="H50" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="I50" s="18">
-        <v>1.5</v>
-      </c>
-      <c r="J50" s="21">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="K50" s="21">
-        <f t="shared" si="2"/>
-        <v>158.25</v>
-      </c>
-      <c r="L50" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="M50" s="22">
-        <v>5</v>
-      </c>
-      <c r="N50" s="12"/>
-      <c r="O50" s="21">
-        <f>ROUND(J50/J51*100,1)</f>
-        <v>4.7</v>
-      </c>
-      <c r="P50" s="21">
-        <f t="shared" si="3"/>
-        <v>100.3</v>
-      </c>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="12"/>
-      <c r="S50" s="12"/>
-    </row>
-    <row r="51" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="6">
-        <f t="shared" ref="E51:J51" si="7">SUM(E14:E50)</f>
-        <v>32.35</v>
-      </c>
-      <c r="F51" s="6">
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="6">
+        <f t="shared" ref="E49:J49" si="7">SUM(E14:E48)</f>
+        <v>31.35</v>
+      </c>
+      <c r="F49" s="6">
+        <f t="shared" si="7"/>
+        <v>30.55</v>
+      </c>
+      <c r="G49" s="6">
         <f t="shared" si="7"/>
         <v>31.55</v>
       </c>
-      <c r="G51" s="6">
-        <f t="shared" si="7"/>
-        <v>31.55</v>
-      </c>
-      <c r="H51" s="6">
+      <c r="H49" s="6">
         <f t="shared" si="7"/>
         <v>31.549999999999997</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I49" s="7">
         <f t="shared" si="7"/>
-        <v>31.25</v>
-      </c>
-      <c r="J51" s="21">
+        <v>30.25</v>
+      </c>
+      <c r="J49" s="21">
         <f t="shared" si="7"/>
-        <v>158.25</v>
-      </c>
-      <c r="K51" s="14"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="21">
-        <f>SUM(O14:O50)</f>
-        <v>100.3</v>
-      </c>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="14"/>
-      <c r="S51" s="14"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="16"/>
+        <v>155.25</v>
+      </c>
+      <c r="K49" s="14"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="21">
+        <f>SUM(O14:O48)</f>
+        <v>99.4</v>
+      </c>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="P8:P13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="N8:N13"/>
+    <mergeCell ref="O8:O13"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:K7"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="K8:K13"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="Q7:S7"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="B8:B13"/>
@@ -3202,28 +3116,6 @@
     <mergeCell ref="J8:J13"/>
     <mergeCell ref="L8:L13"/>
     <mergeCell ref="M8:M13"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="K8:K13"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A38:A45"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="P8:P13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="N8:N13"/>
-    <mergeCell ref="O8:O13"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentos/ciclo1/TASK_TEAM.xlsx
+++ b/documentos/ciclo1/TASK_TEAM.xlsx
@@ -553,6 +553,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -562,6 +571,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -569,30 +593,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -898,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,16 +923,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -941,9 +941,9 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
@@ -957,35 +957,35 @@
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="35">
-        <v>1</v>
-      </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
+      <c r="F5" s="33">
+        <v>1</v>
+      </c>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -1020,171 +1020,171 @@
       <c r="S7" s="26"/>
     </row>
     <row r="8" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="27" t="s">
+      <c r="K8" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="30" t="s">
+      <c r="L8" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="27" t="s">
+      <c r="M8" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="27" t="s">
+      <c r="N8" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="27" t="s">
+      <c r="O8" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="27" t="s">
+      <c r="P8" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="27" t="s">
+      <c r="Q8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="27" t="s">
+      <c r="R8" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="27" t="s">
+      <c r="S8" s="30" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
     </row>
     <row r="13" spans="1:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
     </row>
     <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="27" t="s">
         <v>74</v>
       </c>
       <c r="B14" s="4"/>
@@ -1228,11 +1228,11 @@
       </c>
       <c r="O14" s="21">
         <f>ROUND(J14/J49*100,1)</f>
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="P14" s="17">
         <f>O14</f>
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="Q14" s="21">
         <v>9</v>
@@ -1246,7 +1246,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="9"/>
       <c r="C15" s="5" t="s">
         <v>32</v>
@@ -1288,11 +1288,11 @@
       </c>
       <c r="O15" s="21">
         <f>ROUND(J15/J49*100,1)</f>
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P15" s="21">
         <f>SUM(O15+P14)</f>
-        <v>9.6000000000000014</v>
+        <v>10</v>
       </c>
       <c r="Q15" s="21">
         <v>6</v>
@@ -1306,7 +1306,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="39"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="9"/>
       <c r="C16" s="5" t="s">
         <v>33</v>
@@ -1315,27 +1315,27 @@
         <v>5</v>
       </c>
       <c r="E16" s="19">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F16" s="19">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G16" s="19">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H16" s="19">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I16" s="18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="J16" s="21">
         <f t="shared" si="0"/>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="K16" s="21">
         <f>J16+K15</f>
-        <v>16.25</v>
+        <v>17.5</v>
       </c>
       <c r="L16" s="21" t="s">
         <v>72</v>
@@ -1348,11 +1348,11 @@
       </c>
       <c r="O16" s="21">
         <f>ROUND(J16/J49*100,1)</f>
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="P16" s="21">
         <f>SUM(O16+P15)</f>
-        <v>10.400000000000002</v>
+        <v>11.7</v>
       </c>
       <c r="Q16" s="21">
         <v>1</v>
@@ -1366,7 +1366,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="27" t="s">
         <v>65</v>
       </c>
       <c r="B17" s="9"/>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="K17" s="21">
         <f t="shared" ref="K17:K48" si="2">J17+K16</f>
-        <v>21.25</v>
+        <v>22.5</v>
       </c>
       <c r="L17" s="21" t="s">
         <v>72</v>
@@ -1410,11 +1410,11 @@
       </c>
       <c r="O17" s="21">
         <f>ROUND(J17/J49*100,1)</f>
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P17" s="21">
         <f t="shared" ref="P17:P48" si="3">SUM(O17+P16)</f>
-        <v>13.600000000000001</v>
+        <v>15</v>
       </c>
       <c r="Q17" s="21">
         <v>7</v>
@@ -1428,7 +1428,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="9"/>
       <c r="C18" s="5" t="s">
         <v>35</v>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="K18" s="21">
         <f t="shared" si="2"/>
-        <v>26.75</v>
+        <v>28</v>
       </c>
       <c r="L18" s="21" t="s">
         <v>72</v>
@@ -1470,11 +1470,11 @@
       </c>
       <c r="O18" s="21">
         <f>ROUND(J18/J49*100,1)</f>
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="P18" s="21">
         <f t="shared" si="3"/>
-        <v>17.100000000000001</v>
+        <v>18.7</v>
       </c>
       <c r="Q18" s="21">
         <v>4</v>
@@ -1488,7 +1488,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="39"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="9"/>
       <c r="C19" s="5" t="s">
         <v>75</v>
@@ -1506,18 +1506,18 @@
         <v>0</v>
       </c>
       <c r="H19" s="19">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="I19" s="23">
         <v>0</v>
       </c>
       <c r="J19" s="21">
         <f t="shared" ref="J19" si="4">SUM(E19:I19)</f>
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="K19" s="21">
         <f t="shared" ref="K19" si="5">J19+K18</f>
-        <v>27.55</v>
+        <v>28.7</v>
       </c>
       <c r="L19" s="21" t="s">
         <v>72</v>
@@ -1534,14 +1534,14 @@
       </c>
       <c r="P19" s="21">
         <f t="shared" ref="P19" si="6">SUM(O19+P18)</f>
-        <v>17.600000000000001</v>
+        <v>19.2</v>
       </c>
       <c r="Q19" s="21"/>
       <c r="R19" s="21"/>
       <c r="S19" s="21"/>
     </row>
     <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="27" t="s">
         <v>66</v>
       </c>
       <c r="B20" s="9"/>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="K20" s="21">
         <f>J20+K19</f>
-        <v>30.55</v>
+        <v>31.7</v>
       </c>
       <c r="L20" s="21" t="s">
         <v>72</v>
@@ -1585,18 +1585,18 @@
       </c>
       <c r="O20" s="21">
         <f>ROUND(J20/J49*100,1)</f>
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="P20" s="21">
         <f>SUM(O20+P19)</f>
-        <v>19.5</v>
+        <v>21.2</v>
       </c>
       <c r="Q20" s="21"/>
       <c r="R20" s="21"/>
       <c r="S20" s="21"/>
     </row>
     <row r="21" spans="1:19" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="9"/>
       <c r="C21" s="5" t="s">
         <v>37</v>
@@ -1625,7 +1625,7 @@
       </c>
       <c r="K21" s="21">
         <f t="shared" si="2"/>
-        <v>32.049999999999997</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="L21" s="21" t="s">
         <v>72</v>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="P21" s="21">
         <f t="shared" si="3"/>
-        <v>20.5</v>
+        <v>22.2</v>
       </c>
       <c r="Q21" s="21">
         <v>2</v>
@@ -1651,7 +1651,7 @@
       <c r="S21" s="21"/>
     </row>
     <row r="22" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="9"/>
       <c r="C22" s="5" t="s">
         <v>38</v>
@@ -1660,27 +1660,27 @@
         <v>5</v>
       </c>
       <c r="E22" s="19">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F22" s="19">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="G22" s="19">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H22" s="19">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I22" s="18">
         <v>1.5</v>
       </c>
       <c r="J22" s="21">
         <f t="shared" si="0"/>
-        <v>2.7</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K22" s="21">
         <f t="shared" si="2"/>
-        <v>34.75</v>
+        <v>35.5</v>
       </c>
       <c r="L22" s="21" t="s">
         <v>72</v>
@@ -1693,18 +1693,18 @@
       </c>
       <c r="O22" s="21">
         <f>ROUND(J22/J49*100,1)</f>
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="P22" s="21">
         <f t="shared" si="3"/>
-        <v>22.2</v>
+        <v>23.7</v>
       </c>
       <c r="Q22" s="21"/>
       <c r="R22" s="8"/>
       <c r="S22" s="21"/>
     </row>
     <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="40"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="9"/>
       <c r="C23" s="5" t="s">
         <v>39</v>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="K23" s="21">
         <f>J23+K22</f>
-        <v>37.75</v>
+        <v>38.5</v>
       </c>
       <c r="L23" s="21" t="s">
         <v>72</v>
@@ -1746,18 +1746,18 @@
       </c>
       <c r="O23" s="21">
         <f>ROUND(J23/J49*100,1)</f>
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="P23" s="21">
         <f>SUM(O23+P22)</f>
-        <v>24.099999999999998</v>
+        <v>25.7</v>
       </c>
       <c r="Q23" s="21"/>
       <c r="R23" s="8"/>
       <c r="S23" s="21"/>
     </row>
     <row r="24" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="9"/>
       <c r="C24" s="5" t="s">
         <v>40</v>
@@ -1766,27 +1766,27 @@
         <v>5</v>
       </c>
       <c r="E24" s="19">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F24" s="19">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="G24" s="19">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H24" s="19">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I24" s="18">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J24" s="21">
         <f t="shared" si="0"/>
-        <v>2.6999999999999997</v>
+        <v>1.8</v>
       </c>
       <c r="K24" s="21">
         <f t="shared" si="2"/>
-        <v>40.450000000000003</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="L24" s="21" t="s">
         <v>72</v>
@@ -1799,18 +1799,18 @@
       </c>
       <c r="O24" s="21">
         <f>ROUND(J24/J49*100,1)</f>
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="P24" s="21">
         <f t="shared" si="3"/>
-        <v>25.799999999999997</v>
+        <v>26.9</v>
       </c>
       <c r="Q24" s="21"/>
       <c r="R24" s="8"/>
       <c r="S24" s="21"/>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="9"/>
       <c r="C25" s="5" t="s">
         <v>41</v>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="K25" s="21">
         <f t="shared" si="2"/>
-        <v>43.25</v>
+        <v>43.099999999999994</v>
       </c>
       <c r="L25" s="21" t="s">
         <v>72</v>
@@ -1852,18 +1852,18 @@
       </c>
       <c r="O25" s="21">
         <f>ROUND(J25/J49*100,1)</f>
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="P25" s="21">
         <f t="shared" si="3"/>
-        <v>27.599999999999998</v>
+        <v>28.799999999999997</v>
       </c>
       <c r="Q25" s="21"/>
       <c r="R25" s="8"/>
       <c r="S25" s="21"/>
     </row>
     <row r="26" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="39"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="9"/>
       <c r="C26" s="5" t="s">
         <v>42</v>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="K26" s="21">
         <f t="shared" si="2"/>
-        <v>58.25</v>
+        <v>58.099999999999994</v>
       </c>
       <c r="L26" s="21" t="s">
         <v>72</v>
@@ -1903,18 +1903,18 @@
       <c r="N26" s="8"/>
       <c r="O26" s="21">
         <f>ROUND(J26/J49*100,1)</f>
-        <v>9.6999999999999993</v>
+        <v>10</v>
       </c>
       <c r="P26" s="21">
         <f t="shared" si="3"/>
-        <v>37.299999999999997</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="Q26" s="21"/>
       <c r="R26" s="8"/>
       <c r="S26" s="21"/>
     </row>
     <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="28" t="s">
         <v>67</v>
       </c>
       <c r="B27" s="9"/>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="K27" s="21">
         <f>J27+K26</f>
-        <v>64.25</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="L27" s="21" t="s">
         <v>72</v>
@@ -1956,18 +1956,18 @@
       <c r="N27" s="8"/>
       <c r="O27" s="21">
         <f>ROUND(J27/J49*100,1)</f>
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="P27" s="21">
         <f>SUM(O27+P26)</f>
-        <v>41.199999999999996</v>
+        <v>42.8</v>
       </c>
       <c r="Q27" s="21"/>
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
     </row>
     <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="40"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="9"/>
       <c r="C28" s="5" t="s">
         <v>44</v>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="K28" s="21">
         <f t="shared" si="2"/>
-        <v>67.25</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="L28" s="21" t="s">
         <v>72</v>
@@ -2007,18 +2007,18 @@
       <c r="N28" s="8"/>
       <c r="O28" s="21">
         <f>ROUND(J28/J49*100,1)</f>
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="P28" s="21">
         <f t="shared" si="3"/>
-        <v>43.099999999999994</v>
+        <v>44.8</v>
       </c>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
     </row>
     <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="9"/>
       <c r="C29" s="5" t="s">
         <v>45</v>
@@ -2039,15 +2039,15 @@
         <v>2</v>
       </c>
       <c r="I29" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" s="21">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K29" s="21">
         <f>J29+K28</f>
-        <v>71.25</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="L29" s="21" t="s">
         <v>72</v>
@@ -2058,24 +2058,24 @@
       <c r="N29" s="8"/>
       <c r="O29" s="21">
         <f>ROUND(J29/J49*100,1)</f>
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="P29" s="21">
         <f>SUM(O29+P28)</f>
-        <v>45.699999999999996</v>
+        <v>46.8</v>
       </c>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
     </row>
     <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="9"/>
       <c r="C30" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D30" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" s="19">
         <v>0</v>
@@ -2087,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="H30" s="19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I30" s="18">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J30" s="21">
         <f t="shared" si="0"/>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="K30" s="21">
         <f t="shared" si="2"/>
-        <v>73.25</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="L30" s="21" t="s">
         <v>72</v>
@@ -2113,14 +2113,14 @@
       </c>
       <c r="P30" s="21">
         <f t="shared" si="3"/>
-        <v>46.999999999999993</v>
+        <v>48.099999999999994</v>
       </c>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
     </row>
     <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="27" t="s">
         <v>68</v>
       </c>
       <c r="B31" s="9"/>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="19">
         <v>1</v>
@@ -2147,11 +2147,11 @@
       </c>
       <c r="J31" s="21">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K31" s="21">
         <f>J31+K30</f>
-        <v>76.25</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="L31" s="21" t="s">
         <v>72</v>
@@ -2162,18 +2162,18 @@
       <c r="N31" s="8"/>
       <c r="O31" s="21">
         <f>ROUND(J31/J49*100,1)</f>
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="P31" s="21">
         <f>SUM(O31+P30)</f>
-        <v>48.899999999999991</v>
+        <v>49.399999999999991</v>
       </c>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
     </row>
     <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="9"/>
       <c r="C32" s="5" t="s">
         <v>48</v>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="K32" s="21">
         <f t="shared" si="2"/>
-        <v>79.25</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="L32" s="21" t="s">
         <v>72</v>
@@ -2213,18 +2213,18 @@
       <c r="N32" s="8"/>
       <c r="O32" s="21">
         <f>ROUND(J32/J49*100,1)</f>
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="P32" s="21">
         <f t="shared" si="3"/>
-        <v>50.79999999999999</v>
+        <v>51.399999999999991</v>
       </c>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
     </row>
     <row r="33" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="40"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="9"/>
       <c r="C33" s="5" t="s">
         <v>49</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="19">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H33" s="19">
         <v>0</v>
@@ -2249,11 +2249,11 @@
       </c>
       <c r="J33" s="21">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="K33" s="21">
         <f t="shared" si="2"/>
-        <v>80.25</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="L33" s="21" t="s">
         <v>72</v>
@@ -2264,18 +2264,18 @@
       <c r="N33" s="8"/>
       <c r="O33" s="21">
         <f>ROUND(J33/J49*100,1)</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="P33" s="21">
         <f t="shared" si="3"/>
-        <v>51.399999999999991</v>
+        <v>52.399999999999991</v>
       </c>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
     </row>
     <row r="34" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="40"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="9"/>
       <c r="C34" s="5" t="s">
         <v>50</v>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="K34" s="21">
         <f t="shared" si="2"/>
-        <v>83.25</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="L34" s="21" t="s">
         <v>72</v>
@@ -2315,18 +2315,18 @@
       <c r="N34" s="8"/>
       <c r="O34" s="21">
         <f>ROUND(J34/J49*100,1)</f>
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="P34" s="21">
         <f t="shared" si="3"/>
-        <v>53.29999999999999</v>
+        <v>54.399999999999991</v>
       </c>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
     </row>
     <row r="35" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="39"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="9"/>
       <c r="C35" s="5" t="s">
         <v>51</v>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="K35" s="21">
         <f t="shared" si="2"/>
-        <v>88.75</v>
+        <v>87.1</v>
       </c>
       <c r="L35" s="21" t="s">
         <v>72</v>
@@ -2366,18 +2366,18 @@
       <c r="N35" s="8"/>
       <c r="O35" s="21">
         <f>ROUND(J35/J49*100,1)</f>
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="P35" s="21">
         <f t="shared" si="3"/>
-        <v>56.79999999999999</v>
+        <v>58.099999999999994</v>
       </c>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
     </row>
     <row r="36" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="27" t="s">
         <v>69</v>
       </c>
       <c r="B36" s="9"/>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="K36" s="21">
         <f t="shared" si="2"/>
-        <v>91.75</v>
+        <v>90.1</v>
       </c>
       <c r="L36" s="21" t="s">
         <v>72</v>
@@ -2419,18 +2419,18 @@
       <c r="N36" s="8"/>
       <c r="O36" s="21">
         <f>ROUND(J36/J49*100,1)</f>
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="P36" s="21">
         <f t="shared" si="3"/>
-        <v>58.699999999999989</v>
+        <v>60.099999999999994</v>
       </c>
       <c r="Q36" s="8"/>
       <c r="R36" s="8"/>
       <c r="S36" s="8"/>
     </row>
     <row r="37" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="40"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="9"/>
       <c r="C37" s="5" t="s">
         <v>53</v>
@@ -2439,7 +2439,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="19">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F37" s="19">
         <v>0</v>
@@ -2455,11 +2455,11 @@
       </c>
       <c r="J37" s="21">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K37" s="21">
         <f t="shared" si="2"/>
-        <v>94.25</v>
+        <v>92.1</v>
       </c>
       <c r="L37" s="21" t="s">
         <v>72</v>
@@ -2470,18 +2470,18 @@
       <c r="N37" s="8"/>
       <c r="O37" s="21">
         <f>ROUND(J37/J49*100,1)</f>
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="P37" s="21">
         <f t="shared" si="3"/>
-        <v>60.29999999999999</v>
+        <v>61.399999999999991</v>
       </c>
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
     </row>
     <row r="38" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="40"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="9"/>
       <c r="C38" s="5" t="s">
         <v>54</v>
@@ -2510,25 +2510,25 @@
       </c>
       <c r="K38" s="21">
         <f t="shared" si="2"/>
-        <v>95.25</v>
+        <v>93.1</v>
       </c>
       <c r="L38" s="21"/>
       <c r="M38" s="21"/>
       <c r="N38" s="8"/>
       <c r="O38" s="21">
         <f>ROUND(J38/J49*100,1)</f>
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="P38" s="21">
         <f t="shared" si="3"/>
-        <v>60.899999999999991</v>
+        <v>62.099999999999994</v>
       </c>
       <c r="Q38" s="8"/>
       <c r="R38" s="8"/>
       <c r="S38" s="8"/>
     </row>
     <row r="39" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="40"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="9"/>
       <c r="C39" s="5" t="s">
         <v>55</v>
@@ -2543,10 +2543,10 @@
         <v>0</v>
       </c>
       <c r="G39" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="18">
         <v>1</v>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="K39" s="21">
         <f t="shared" si="2"/>
-        <v>97.25</v>
+        <v>95.1</v>
       </c>
       <c r="L39" s="21" t="s">
         <v>72</v>
@@ -2570,14 +2570,14 @@
       </c>
       <c r="P39" s="21">
         <f t="shared" si="3"/>
-        <v>62.199999999999989</v>
+        <v>63.399999999999991</v>
       </c>
       <c r="Q39" s="8"/>
       <c r="R39" s="8"/>
       <c r="S39" s="8"/>
     </row>
     <row r="40" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="40"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="9"/>
       <c r="C40" s="5" t="s">
         <v>56</v>
@@ -2595,18 +2595,18 @@
         <v>0.5</v>
       </c>
       <c r="H40" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" s="18">
         <v>1</v>
       </c>
       <c r="J40" s="21">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="K40" s="21">
         <f t="shared" si="2"/>
-        <v>99.75</v>
+        <v>96.6</v>
       </c>
       <c r="L40" s="21" t="s">
         <v>72</v>
@@ -2617,18 +2617,18 @@
       <c r="N40" s="8"/>
       <c r="O40" s="21">
         <f>ROUND(J40/J49*100,1)</f>
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="P40" s="21">
         <f t="shared" si="3"/>
-        <v>63.79999999999999</v>
+        <v>64.399999999999991</v>
       </c>
       <c r="Q40" s="8"/>
       <c r="R40" s="8"/>
       <c r="S40" s="8"/>
     </row>
     <row r="41" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="40"/>
+      <c r="A41" s="28"/>
       <c r="B41" s="9"/>
       <c r="C41" s="5" t="s">
         <v>57</v>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="K41" s="21">
         <f t="shared" si="2"/>
-        <v>124.75</v>
+        <v>121.6</v>
       </c>
       <c r="L41" s="21" t="s">
         <v>73</v>
@@ -2668,18 +2668,18 @@
       <c r="N41" s="8"/>
       <c r="O41" s="21">
         <f>ROUND(J41/J49*100,1)</f>
-        <v>16.100000000000001</v>
+        <v>16.7</v>
       </c>
       <c r="P41" s="21">
         <f t="shared" si="3"/>
-        <v>79.899999999999991</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="Q41" s="8"/>
       <c r="R41" s="8"/>
       <c r="S41" s="8"/>
     </row>
     <row r="42" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="40"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="9"/>
       <c r="C42" s="5" t="s">
         <v>58</v>
@@ -2688,7 +2688,7 @@
         <v>5</v>
       </c>
       <c r="E42" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" s="19">
         <v>1</v>
@@ -2704,29 +2704,29 @@
       </c>
       <c r="J42" s="21">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K42" s="21">
         <f t="shared" si="2"/>
-        <v>127.75</v>
+        <v>123.6</v>
       </c>
       <c r="L42" s="21"/>
       <c r="M42" s="21"/>
       <c r="N42" s="8"/>
       <c r="O42" s="21">
         <f>ROUND(J42/J49*100,1)</f>
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="P42" s="21">
         <f t="shared" si="3"/>
-        <v>81.8</v>
+        <v>82.399999999999991</v>
       </c>
       <c r="Q42" s="8"/>
       <c r="R42" s="8"/>
       <c r="S42" s="8"/>
     </row>
     <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="39"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="9"/>
       <c r="C43" s="5" t="s">
         <v>59</v>
@@ -2738,24 +2738,24 @@
         <v>0</v>
       </c>
       <c r="F43" s="19">
+        <v>0</v>
+      </c>
+      <c r="G43" s="19">
+        <v>0</v>
+      </c>
+      <c r="H43" s="19">
         <v>0.5</v>
-      </c>
-      <c r="G43" s="19">
-        <v>0</v>
-      </c>
-      <c r="H43" s="19">
-        <v>1</v>
       </c>
       <c r="I43" s="18">
         <v>0.5</v>
       </c>
       <c r="J43" s="21">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K43" s="21">
         <f t="shared" si="2"/>
-        <v>129.75</v>
+        <v>124.6</v>
       </c>
       <c r="L43" s="21" t="s">
         <v>72</v>
@@ -2766,7 +2766,7 @@
       <c r="N43" s="8"/>
       <c r="O43" s="21">
         <f>ROUND(J43/J49*100,1)</f>
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="P43" s="21">
         <f t="shared" si="3"/>
@@ -2777,7 +2777,7 @@
       <c r="S43" s="8"/>
     </row>
     <row r="44" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="27" t="s">
         <v>70</v>
       </c>
       <c r="B44" s="9"/>
@@ -2808,7 +2808,7 @@
       </c>
       <c r="K44" s="21">
         <f t="shared" si="2"/>
-        <v>134.75</v>
+        <v>129.6</v>
       </c>
       <c r="L44" s="21" t="s">
         <v>72</v>
@@ -2819,18 +2819,18 @@
       <c r="N44" s="8"/>
       <c r="O44" s="21">
         <f>ROUND(J44/J49*100,1)</f>
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P44" s="21">
         <f t="shared" si="3"/>
-        <v>86.3</v>
+        <v>86.399999999999991</v>
       </c>
       <c r="Q44" s="8"/>
       <c r="R44" s="8"/>
       <c r="S44" s="8"/>
     </row>
     <row r="45" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="40"/>
+      <c r="A45" s="28"/>
       <c r="B45" s="9"/>
       <c r="C45" s="5" t="s">
         <v>61</v>
@@ -2859,25 +2859,25 @@
       </c>
       <c r="K45" s="21">
         <f t="shared" si="2"/>
-        <v>137.75</v>
+        <v>132.6</v>
       </c>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
       <c r="N45" s="8"/>
       <c r="O45" s="21">
         <f>ROUND(J45/J49*100,1)</f>
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="P45" s="21">
         <f t="shared" si="3"/>
-        <v>88.2</v>
+        <v>88.399999999999991</v>
       </c>
       <c r="Q45" s="8"/>
       <c r="R45" s="8"/>
       <c r="S45" s="8"/>
     </row>
     <row r="46" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="39"/>
+      <c r="A46" s="29"/>
       <c r="B46" s="9"/>
       <c r="C46" s="5" t="s">
         <v>62</v>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="K46" s="21">
         <f t="shared" si="2"/>
-        <v>142.75</v>
+        <v>137.6</v>
       </c>
       <c r="L46" s="21" t="s">
         <v>72</v>
@@ -2917,18 +2917,18 @@
       <c r="N46" s="8"/>
       <c r="O46" s="21">
         <f>ROUND(J46/J49*100,1)</f>
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P46" s="21">
         <f t="shared" si="3"/>
-        <v>91.4</v>
+        <v>91.699999999999989</v>
       </c>
       <c r="Q46" s="8"/>
       <c r="R46" s="8"/>
       <c r="S46" s="8"/>
     </row>
     <row r="47" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="27" t="s">
         <v>71</v>
       </c>
       <c r="B47" s="9"/>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="K47" s="21">
         <f t="shared" si="2"/>
-        <v>147.75</v>
+        <v>142.6</v>
       </c>
       <c r="L47" s="21" t="s">
         <v>72</v>
@@ -2970,18 +2970,18 @@
       <c r="N47" s="8"/>
       <c r="O47" s="21">
         <f>ROUND(J47/J49*100,1)</f>
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P47" s="21">
         <f t="shared" si="3"/>
-        <v>94.600000000000009</v>
+        <v>94.999999999999986</v>
       </c>
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
       <c r="S47" s="8"/>
     </row>
     <row r="48" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="39"/>
+      <c r="A48" s="29"/>
       <c r="B48" s="10"/>
       <c r="C48" s="11" t="s">
         <v>64</v>
@@ -3010,7 +3010,7 @@
       </c>
       <c r="K48" s="21">
         <f t="shared" si="2"/>
-        <v>155.25</v>
+        <v>150.1</v>
       </c>
       <c r="L48" s="22" t="s">
         <v>72</v>
@@ -3021,11 +3021,11 @@
       <c r="N48" s="12"/>
       <c r="O48" s="21">
         <f>ROUND(J48/J49*100,1)</f>
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="P48" s="21">
         <f t="shared" si="3"/>
-        <v>99.4</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="Q48" s="8"/>
       <c r="R48" s="12"/>
@@ -3038,27 +3038,27 @@
       <c r="D49" s="14"/>
       <c r="E49" s="6">
         <f t="shared" ref="E49:J49" si="7">SUM(E14:E48)</f>
-        <v>31.35</v>
+        <v>29.9</v>
       </c>
       <c r="F49" s="6">
         <f t="shared" si="7"/>
-        <v>30.55</v>
+        <v>30.099999999999998</v>
       </c>
       <c r="G49" s="6">
         <f t="shared" si="7"/>
-        <v>31.55</v>
+        <v>30.099999999999998</v>
       </c>
       <c r="H49" s="6">
         <f t="shared" si="7"/>
-        <v>31.549999999999997</v>
+        <v>30.1</v>
       </c>
       <c r="I49" s="7">
         <f t="shared" si="7"/>
-        <v>30.25</v>
+        <v>29.9</v>
       </c>
       <c r="J49" s="21">
-        <f t="shared" si="7"/>
-        <v>155.25</v>
+        <f>SUM(J14:J48)</f>
+        <v>150.1</v>
       </c>
       <c r="K49" s="14"/>
       <c r="L49" s="13"/>
@@ -3066,7 +3066,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="21">
         <f>SUM(O14:O48)</f>
-        <v>99.4</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="P49" s="15"/>
       <c r="Q49" s="8"/>
@@ -3078,28 +3078,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="P8:P13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="N8:N13"/>
-    <mergeCell ref="O8:O13"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:K7"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="K8:K13"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="Q7:S7"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="B8:B13"/>
@@ -3116,6 +3094,28 @@
     <mergeCell ref="J8:J13"/>
     <mergeCell ref="L8:L13"/>
     <mergeCell ref="M8:M13"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="K8:K13"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="P8:P13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="N8:N13"/>
+    <mergeCell ref="O8:O13"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentos/ciclo1/TASK_TEAM.xlsx
+++ b/documentos/ciclo1/TASK_TEAM.xlsx
@@ -186,9 +186,6 @@
     <t>Desarrollo de pruebas</t>
   </si>
   <si>
-    <t>Inspección detallada del diseño</t>
-  </si>
-  <si>
     <t>Código</t>
   </si>
   <si>
@@ -244,6 +241,9 @@
   </si>
   <si>
     <t>Generar acta de reunión de documentación de estrategia y criterios</t>
+  </si>
+  <si>
+    <t>Inspección detallada de pruebas</t>
   </si>
 </sst>
 </file>
@@ -898,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="5" t="s">
@@ -1218,7 +1218,7 @@
         <v>10</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M14" s="21">
         <v>2</v>
@@ -1228,11 +1228,11 @@
       </c>
       <c r="O14" s="21">
         <f>ROUND(J14/J49*100,1)</f>
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="P14" s="17">
         <f>O14</f>
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Q14" s="21">
         <v>9</v>
@@ -1278,7 +1278,7 @@
         <v>15</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M15" s="21">
         <v>5</v>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="P15" s="21">
         <f>SUM(O15+P14)</f>
-        <v>10</v>
+        <v>9.8999999999999986</v>
       </c>
       <c r="Q15" s="21">
         <v>6</v>
@@ -1338,7 +1338,7 @@
         <v>17.5</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M16" s="21">
         <v>1</v>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="P16" s="21">
         <f>SUM(O16+P15)</f>
-        <v>11.7</v>
+        <v>11.599999999999998</v>
       </c>
       <c r="Q16" s="21">
         <v>1</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="5" t="s">
@@ -1400,7 +1400,7 @@
         <v>22.5</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M17" s="21">
         <v>1</v>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="P17" s="21">
         <f t="shared" ref="P17:P48" si="3">SUM(O17+P16)</f>
-        <v>15</v>
+        <v>14.899999999999999</v>
       </c>
       <c r="Q17" s="21">
         <v>7</v>
@@ -1460,7 +1460,7 @@
         <v>28</v>
       </c>
       <c r="L18" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M18" s="21">
         <v>1</v>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="P18" s="21">
         <f t="shared" si="3"/>
-        <v>18.7</v>
+        <v>18.599999999999998</v>
       </c>
       <c r="Q18" s="21">
         <v>4</v>
@@ -1491,7 +1491,7 @@
       <c r="A19" s="29"/>
       <c r="B19" s="9"/>
       <c r="C19" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D19" s="19">
         <v>1</v>
@@ -1520,7 +1520,7 @@
         <v>28.7</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M19" s="21">
         <v>2</v>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="P19" s="21">
         <f t="shared" ref="P19" si="6">SUM(O19+P18)</f>
-        <v>19.2</v>
+        <v>19.099999999999998</v>
       </c>
       <c r="Q19" s="21"/>
       <c r="R19" s="21"/>
@@ -1542,7 +1542,7 @@
     </row>
     <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="5" t="s">
@@ -1575,7 +1575,7 @@
         <v>31.7</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M20" s="21">
         <v>1</v>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="P20" s="21">
         <f>SUM(O20+P19)</f>
-        <v>21.2</v>
+        <v>21.099999999999998</v>
       </c>
       <c r="Q20" s="21"/>
       <c r="R20" s="21"/>
@@ -1628,7 +1628,7 @@
         <v>33.200000000000003</v>
       </c>
       <c r="L21" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M21" s="21">
         <v>0.5</v>
@@ -1642,11 +1642,9 @@
       </c>
       <c r="P21" s="21">
         <f t="shared" si="3"/>
-        <v>22.2</v>
-      </c>
-      <c r="Q21" s="21">
-        <v>2</v>
-      </c>
+        <v>22.099999999999998</v>
+      </c>
+      <c r="Q21" s="21"/>
       <c r="R21" s="21"/>
       <c r="S21" s="21"/>
     </row>
@@ -1683,7 +1681,7 @@
         <v>35.5</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M22" s="21">
         <v>1</v>
@@ -1697,7 +1695,7 @@
       </c>
       <c r="P22" s="21">
         <f t="shared" si="3"/>
-        <v>23.7</v>
+        <v>23.599999999999998</v>
       </c>
       <c r="Q22" s="21"/>
       <c r="R22" s="8"/>
@@ -1736,7 +1734,7 @@
         <v>38.5</v>
       </c>
       <c r="L23" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M23" s="21">
         <v>1</v>
@@ -1750,7 +1748,7 @@
       </c>
       <c r="P23" s="21">
         <f>SUM(O23+P22)</f>
-        <v>25.7</v>
+        <v>25.599999999999998</v>
       </c>
       <c r="Q23" s="21"/>
       <c r="R23" s="8"/>
@@ -1766,30 +1764,30 @@
         <v>5</v>
       </c>
       <c r="E24" s="19">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F24" s="19">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G24" s="19">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H24" s="19">
         <v>1</v>
       </c>
       <c r="I24" s="18">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="J24" s="21">
         <f t="shared" si="0"/>
-        <v>1.8</v>
+        <v>2.1999999999999997</v>
       </c>
       <c r="K24" s="21">
         <f t="shared" si="2"/>
-        <v>40.299999999999997</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="L24" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M24" s="21">
         <v>3</v>
@@ -1799,11 +1797,11 @@
       </c>
       <c r="O24" s="21">
         <f>ROUND(J24/J49*100,1)</f>
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="P24" s="21">
         <f t="shared" si="3"/>
-        <v>26.9</v>
+        <v>27.099999999999998</v>
       </c>
       <c r="Q24" s="21"/>
       <c r="R24" s="8"/>
@@ -1839,10 +1837,10 @@
       </c>
       <c r="K25" s="21">
         <f t="shared" si="2"/>
-        <v>43.099999999999994</v>
+        <v>43.5</v>
       </c>
       <c r="L25" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M25" s="21">
         <v>2</v>
@@ -1856,7 +1854,7 @@
       </c>
       <c r="P25" s="21">
         <f t="shared" si="3"/>
-        <v>28.799999999999997</v>
+        <v>28.999999999999996</v>
       </c>
       <c r="Q25" s="21"/>
       <c r="R25" s="8"/>
@@ -1892,10 +1890,10 @@
       </c>
       <c r="K26" s="21">
         <f t="shared" si="2"/>
-        <v>58.099999999999994</v>
+        <v>58.5</v>
       </c>
       <c r="L26" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M26" s="21">
         <v>5</v>
@@ -1907,7 +1905,7 @@
       </c>
       <c r="P26" s="21">
         <f t="shared" si="3"/>
-        <v>38.799999999999997</v>
+        <v>39</v>
       </c>
       <c r="Q26" s="21"/>
       <c r="R26" s="8"/>
@@ -1915,14 +1913,14 @@
     </row>
     <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D27" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" s="19">
         <v>2</v>
@@ -1945,10 +1943,10 @@
       </c>
       <c r="K27" s="21">
         <f>J27+K26</f>
-        <v>64.099999999999994</v>
+        <v>64.5</v>
       </c>
       <c r="L27" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M27" s="21">
         <v>1</v>
@@ -1960,7 +1958,7 @@
       </c>
       <c r="P27" s="21">
         <f>SUM(O27+P26)</f>
-        <v>42.8</v>
+        <v>43</v>
       </c>
       <c r="Q27" s="21"/>
       <c r="R27" s="8"/>
@@ -1973,7 +1971,7 @@
         <v>44</v>
       </c>
       <c r="D28" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28" s="19">
         <v>1</v>
@@ -1996,10 +1994,10 @@
       </c>
       <c r="K28" s="21">
         <f t="shared" si="2"/>
-        <v>67.099999999999994</v>
+        <v>67.5</v>
       </c>
       <c r="L28" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M28" s="21">
         <v>2</v>
@@ -2011,7 +2009,7 @@
       </c>
       <c r="P28" s="21">
         <f t="shared" si="3"/>
-        <v>44.8</v>
+        <v>45</v>
       </c>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
@@ -2024,7 +2022,7 @@
         <v>45</v>
       </c>
       <c r="D29" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" s="19">
         <v>0</v>
@@ -2047,10 +2045,10 @@
       </c>
       <c r="K29" s="21">
         <f>J29+K28</f>
-        <v>70.099999999999994</v>
+        <v>70.5</v>
       </c>
       <c r="L29" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M29" s="21">
         <v>1</v>
@@ -2062,7 +2060,7 @@
       </c>
       <c r="P29" s="21">
         <f>SUM(O29+P28)</f>
-        <v>46.8</v>
+        <v>47</v>
       </c>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
@@ -2098,10 +2096,10 @@
       </c>
       <c r="K30" s="21">
         <f t="shared" si="2"/>
-        <v>72.099999999999994</v>
+        <v>72.5</v>
       </c>
       <c r="L30" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M30" s="21">
         <v>1</v>
@@ -2113,7 +2111,7 @@
       </c>
       <c r="P30" s="21">
         <f t="shared" si="3"/>
-        <v>48.099999999999994</v>
+        <v>48.3</v>
       </c>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
@@ -2121,7 +2119,7 @@
     </row>
     <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="5" t="s">
@@ -2151,10 +2149,10 @@
       </c>
       <c r="K31" s="21">
         <f>J31+K30</f>
-        <v>74.099999999999994</v>
+        <v>74.5</v>
       </c>
       <c r="L31" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M31" s="21">
         <v>3</v>
@@ -2166,7 +2164,7 @@
       </c>
       <c r="P31" s="21">
         <f>SUM(O31+P30)</f>
-        <v>49.399999999999991</v>
+        <v>49.599999999999994</v>
       </c>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
@@ -2179,7 +2177,7 @@
         <v>48</v>
       </c>
       <c r="D32" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="19">
         <v>0</v>
@@ -2202,10 +2200,10 @@
       </c>
       <c r="K32" s="21">
         <f t="shared" si="2"/>
-        <v>77.099999999999994</v>
+        <v>77.5</v>
       </c>
       <c r="L32" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M32" s="21">
         <v>2</v>
@@ -2217,7 +2215,7 @@
       </c>
       <c r="P32" s="21">
         <f t="shared" si="3"/>
-        <v>51.399999999999991</v>
+        <v>51.599999999999994</v>
       </c>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
@@ -2253,10 +2251,10 @@
       </c>
       <c r="K33" s="21">
         <f t="shared" si="2"/>
-        <v>78.599999999999994</v>
+        <v>79</v>
       </c>
       <c r="L33" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M33" s="21">
         <v>1</v>
@@ -2268,7 +2266,7 @@
       </c>
       <c r="P33" s="21">
         <f t="shared" si="3"/>
-        <v>52.399999999999991</v>
+        <v>52.599999999999994</v>
       </c>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
@@ -2281,7 +2279,7 @@
         <v>50</v>
       </c>
       <c r="D34" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" s="19">
         <v>2</v>
@@ -2304,10 +2302,10 @@
       </c>
       <c r="K34" s="21">
         <f t="shared" si="2"/>
-        <v>81.599999999999994</v>
+        <v>82</v>
       </c>
       <c r="L34" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M34" s="21">
         <v>0.7</v>
@@ -2319,7 +2317,7 @@
       </c>
       <c r="P34" s="21">
         <f t="shared" si="3"/>
-        <v>54.399999999999991</v>
+        <v>54.599999999999994</v>
       </c>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
@@ -2332,16 +2330,16 @@
         <v>51</v>
       </c>
       <c r="D35" s="19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E35" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" s="19">
         <v>0.5</v>
       </c>
       <c r="G35" s="19">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H35" s="19">
         <v>0.5</v>
@@ -2351,14 +2349,14 @@
       </c>
       <c r="J35" s="21">
         <f t="shared" si="0"/>
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="K35" s="21">
         <f t="shared" si="2"/>
-        <v>87.1</v>
+        <v>85</v>
       </c>
       <c r="L35" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M35" s="21">
         <v>0.7</v>
@@ -2366,11 +2364,11 @@
       <c r="N35" s="8"/>
       <c r="O35" s="21">
         <f>ROUND(J35/J49*100,1)</f>
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="P35" s="21">
         <f t="shared" si="3"/>
-        <v>58.099999999999994</v>
+        <v>56.599999999999994</v>
       </c>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
@@ -2378,7 +2376,7 @@
     </row>
     <row r="36" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="5" t="s">
@@ -2408,10 +2406,10 @@
       </c>
       <c r="K36" s="21">
         <f t="shared" si="2"/>
-        <v>90.1</v>
+        <v>88</v>
       </c>
       <c r="L36" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M36" s="21">
         <v>1</v>
@@ -2423,7 +2421,7 @@
       </c>
       <c r="P36" s="21">
         <f t="shared" si="3"/>
-        <v>60.099999999999994</v>
+        <v>58.599999999999994</v>
       </c>
       <c r="Q36" s="8"/>
       <c r="R36" s="8"/>
@@ -2445,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="19">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H37" s="19">
         <v>0</v>
@@ -2455,14 +2453,14 @@
       </c>
       <c r="J37" s="21">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K37" s="21">
         <f t="shared" si="2"/>
-        <v>92.1</v>
+        <v>91.5</v>
       </c>
       <c r="L37" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M37" s="21">
         <v>3</v>
@@ -2470,11 +2468,11 @@
       <c r="N37" s="8"/>
       <c r="O37" s="21">
         <f>ROUND(J37/J49*100,1)</f>
-        <v>1.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="P37" s="21">
         <f t="shared" si="3"/>
-        <v>61.399999999999991</v>
+        <v>60.899999999999991</v>
       </c>
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
@@ -2490,7 +2488,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" s="19">
         <v>0</v>
@@ -2506,22 +2504,22 @@
       </c>
       <c r="J38" s="21">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K38" s="21">
         <f t="shared" si="2"/>
-        <v>93.1</v>
+        <v>93.5</v>
       </c>
       <c r="L38" s="21"/>
       <c r="M38" s="21"/>
       <c r="N38" s="8"/>
       <c r="O38" s="21">
         <f>ROUND(J38/J49*100,1)</f>
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="P38" s="21">
         <f t="shared" si="3"/>
-        <v>62.099999999999994</v>
+        <v>62.199999999999989</v>
       </c>
       <c r="Q38" s="8"/>
       <c r="R38" s="8"/>
@@ -2557,10 +2555,10 @@
       </c>
       <c r="K39" s="21">
         <f t="shared" si="2"/>
-        <v>95.1</v>
+        <v>95.5</v>
       </c>
       <c r="L39" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M39" s="21"/>
       <c r="N39" s="8"/>
@@ -2570,7 +2568,7 @@
       </c>
       <c r="P39" s="21">
         <f t="shared" si="3"/>
-        <v>63.399999999999991</v>
+        <v>63.499999999999986</v>
       </c>
       <c r="Q39" s="8"/>
       <c r="R39" s="8"/>
@@ -2580,7 +2578,7 @@
       <c r="A40" s="28"/>
       <c r="B40" s="9"/>
       <c r="C40" s="5" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D40" s="19">
         <v>2</v>
@@ -2606,10 +2604,10 @@
       </c>
       <c r="K40" s="21">
         <f t="shared" si="2"/>
-        <v>96.6</v>
+        <v>97</v>
       </c>
       <c r="L40" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M40" s="21">
         <v>0.7</v>
@@ -2621,7 +2619,7 @@
       </c>
       <c r="P40" s="21">
         <f t="shared" si="3"/>
-        <v>64.399999999999991</v>
+        <v>64.499999999999986</v>
       </c>
       <c r="Q40" s="8"/>
       <c r="R40" s="8"/>
@@ -2631,7 +2629,7 @@
       <c r="A41" s="28"/>
       <c r="B41" s="9"/>
       <c r="C41" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D41" s="19">
         <v>5</v>
@@ -2657,10 +2655,10 @@
       </c>
       <c r="K41" s="21">
         <f t="shared" si="2"/>
-        <v>121.6</v>
+        <v>122</v>
       </c>
       <c r="L41" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M41" s="21">
         <v>646</v>
@@ -2668,7 +2666,7 @@
       <c r="N41" s="8"/>
       <c r="O41" s="21">
         <f>ROUND(J41/J49*100,1)</f>
-        <v>16.7</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="P41" s="21">
         <f t="shared" si="3"/>
@@ -2682,7 +2680,7 @@
       <c r="A42" s="28"/>
       <c r="B42" s="9"/>
       <c r="C42" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D42" s="19">
         <v>5</v>
@@ -2708,7 +2706,7 @@
       </c>
       <c r="K42" s="21">
         <f t="shared" si="2"/>
-        <v>123.6</v>
+        <v>124</v>
       </c>
       <c r="L42" s="21"/>
       <c r="M42" s="21"/>
@@ -2729,7 +2727,7 @@
       <c r="A43" s="29"/>
       <c r="B43" s="9"/>
       <c r="C43" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D43" s="19">
         <v>1</v>
@@ -2755,10 +2753,10 @@
       </c>
       <c r="K43" s="21">
         <f t="shared" si="2"/>
-        <v>124.6</v>
+        <v>125</v>
       </c>
       <c r="L43" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M43" s="21">
         <v>0.7</v>
@@ -2778,11 +2776,11 @@
     </row>
     <row r="44" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D44" s="19">
         <v>1</v>
@@ -2808,10 +2806,10 @@
       </c>
       <c r="K44" s="21">
         <f t="shared" si="2"/>
-        <v>129.6</v>
+        <v>130</v>
       </c>
       <c r="L44" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M44" s="21">
         <v>6</v>
@@ -2833,7 +2831,7 @@
       <c r="A45" s="28"/>
       <c r="B45" s="9"/>
       <c r="C45" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D45" s="19">
         <v>5</v>
@@ -2859,7 +2857,7 @@
       </c>
       <c r="K45" s="21">
         <f t="shared" si="2"/>
-        <v>132.6</v>
+        <v>133</v>
       </c>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
@@ -2880,7 +2878,7 @@
       <c r="A46" s="29"/>
       <c r="B46" s="9"/>
       <c r="C46" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D46" s="19">
         <v>2</v>
@@ -2906,10 +2904,10 @@
       </c>
       <c r="K46" s="21">
         <f t="shared" si="2"/>
-        <v>137.6</v>
+        <v>138</v>
       </c>
       <c r="L46" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M46" s="21">
         <v>10</v>
@@ -2929,11 +2927,11 @@
     </row>
     <row r="47" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D47" s="19">
         <v>5</v>
@@ -2959,10 +2957,10 @@
       </c>
       <c r="K47" s="21">
         <f t="shared" si="2"/>
-        <v>142.6</v>
+        <v>143</v>
       </c>
       <c r="L47" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M47" s="21">
         <v>5</v>
@@ -2984,7 +2982,7 @@
       <c r="A48" s="29"/>
       <c r="B48" s="10"/>
       <c r="C48" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D48" s="20">
         <v>5</v>
@@ -3010,10 +3008,10 @@
       </c>
       <c r="K48" s="21">
         <f t="shared" si="2"/>
-        <v>150.1</v>
+        <v>150.5</v>
       </c>
       <c r="L48" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M48" s="22">
         <v>5</v>
@@ -3037,16 +3035,16 @@
       <c r="C49" s="13"/>
       <c r="D49" s="14"/>
       <c r="E49" s="6">
-        <f t="shared" ref="E49:J49" si="7">SUM(E14:E48)</f>
-        <v>29.9</v>
+        <f t="shared" ref="E49:I49" si="7">SUM(E14:E48)</f>
+        <v>30</v>
       </c>
       <c r="F49" s="6">
         <f t="shared" si="7"/>
-        <v>30.099999999999998</v>
+        <v>30.2</v>
       </c>
       <c r="G49" s="6">
         <f t="shared" si="7"/>
-        <v>30.099999999999998</v>
+        <v>30.2</v>
       </c>
       <c r="H49" s="6">
         <f t="shared" si="7"/>
@@ -3054,11 +3052,11 @@
       </c>
       <c r="I49" s="7">
         <f t="shared" si="7"/>
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="J49" s="21">
         <f>SUM(J14:J48)</f>
-        <v>150.1</v>
+        <v>150.5</v>
       </c>
       <c r="K49" s="14"/>
       <c r="L49" s="13"/>

--- a/documentos/ciclo1/TASK_TEAM.xlsx
+++ b/documentos/ciclo1/TASK_TEAM.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="19980" windowHeight="7815"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="19440" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -553,46 +553,46 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -898,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,16 +923,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -941,9 +941,9 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
@@ -957,35 +957,35 @@
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="33">
-        <v>1</v>
-      </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
+      <c r="F5" s="35">
+        <v>1</v>
+      </c>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -1020,171 +1020,171 @@
       <c r="S7" s="26"/>
     </row>
     <row r="8" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="J8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="K8" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="38" t="s">
+      <c r="L8" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="30" t="s">
+      <c r="M8" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="30" t="s">
+      <c r="N8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="30" t="s">
+      <c r="O8" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="30" t="s">
+      <c r="P8" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="30" t="s">
+      <c r="Q8" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="30" t="s">
+      <c r="R8" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="30" t="s">
+      <c r="S8" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
     </row>
     <row r="13" spans="1:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
     </row>
     <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="38" t="s">
         <v>73</v>
       </c>
       <c r="B14" s="4"/>
@@ -1246,7 +1246,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="9"/>
       <c r="C15" s="5" t="s">
         <v>32</v>
@@ -1306,7 +1306,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="9"/>
       <c r="C16" s="5" t="s">
         <v>33</v>
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="R16" s="21">
-        <f t="shared" ref="R16:R18" si="1">Q16+R15</f>
+        <f t="shared" ref="R16:R19" si="1">Q16+R15</f>
         <v>16</v>
       </c>
       <c r="S16" s="21">
@@ -1366,7 +1366,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="38" t="s">
         <v>64</v>
       </c>
       <c r="B17" s="9"/>
@@ -1428,7 +1428,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="9"/>
       <c r="C18" s="5" t="s">
         <v>35</v>
@@ -1488,7 +1488,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="9"/>
       <c r="C19" s="5" t="s">
         <v>74</v>
@@ -1536,12 +1536,19 @@
         <f t="shared" ref="P19" si="6">SUM(O19+P18)</f>
         <v>19.099999999999998</v>
       </c>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
+      <c r="Q19" s="21">
+        <v>1</v>
+      </c>
+      <c r="R19" s="21">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="S19" s="21">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="38" t="s">
         <v>65</v>
       </c>
       <c r="B20" s="9"/>
@@ -1596,7 +1603,7 @@
       <c r="S20" s="21"/>
     </row>
     <row r="21" spans="1:19" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="9"/>
       <c r="C21" s="5" t="s">
         <v>37</v>
@@ -1649,7 +1656,7 @@
       <c r="S21" s="21"/>
     </row>
     <row r="22" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="9"/>
       <c r="C22" s="5" t="s">
         <v>38</v>
@@ -1702,7 +1709,7 @@
       <c r="S22" s="21"/>
     </row>
     <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="9"/>
       <c r="C23" s="5" t="s">
         <v>39</v>
@@ -1755,7 +1762,7 @@
       <c r="S23" s="21"/>
     </row>
     <row r="24" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="9"/>
       <c r="C24" s="5" t="s">
         <v>40</v>
@@ -1808,7 +1815,7 @@
       <c r="S24" s="21"/>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="9"/>
       <c r="C25" s="5" t="s">
         <v>41</v>
@@ -1861,7 +1868,7 @@
       <c r="S25" s="21"/>
     </row>
     <row r="26" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="9"/>
       <c r="C26" s="5" t="s">
         <v>42</v>
@@ -1912,7 +1919,7 @@
       <c r="S26" s="21"/>
     </row>
     <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="40" t="s">
         <v>66</v>
       </c>
       <c r="B27" s="9"/>
@@ -1965,7 +1972,7 @@
       <c r="S27" s="8"/>
     </row>
     <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="9"/>
       <c r="C28" s="5" t="s">
         <v>44</v>
@@ -2016,7 +2023,7 @@
       <c r="S28" s="8"/>
     </row>
     <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="9"/>
       <c r="C29" s="5" t="s">
         <v>45</v>
@@ -2067,7 +2074,7 @@
       <c r="S29" s="8"/>
     </row>
     <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="9"/>
       <c r="C30" s="5" t="s">
         <v>46</v>
@@ -2118,7 +2125,7 @@
       <c r="S30" s="8"/>
     </row>
     <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="38" t="s">
         <v>67</v>
       </c>
       <c r="B31" s="9"/>
@@ -2171,7 +2178,7 @@
       <c r="S31" s="8"/>
     </row>
     <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="9"/>
       <c r="C32" s="5" t="s">
         <v>48</v>
@@ -2222,7 +2229,7 @@
       <c r="S32" s="8"/>
     </row>
     <row r="33" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="9"/>
       <c r="C33" s="5" t="s">
         <v>49</v>
@@ -2273,7 +2280,7 @@
       <c r="S33" s="8"/>
     </row>
     <row r="34" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="9"/>
       <c r="C34" s="5" t="s">
         <v>50</v>
@@ -2324,7 +2331,7 @@
       <c r="S34" s="8"/>
     </row>
     <row r="35" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="9"/>
       <c r="C35" s="5" t="s">
         <v>51</v>
@@ -2375,7 +2382,7 @@
       <c r="S35" s="8"/>
     </row>
     <row r="36" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="38" t="s">
         <v>68</v>
       </c>
       <c r="B36" s="9"/>
@@ -2428,7 +2435,7 @@
       <c r="S36" s="8"/>
     </row>
     <row r="37" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="28"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="9"/>
       <c r="C37" s="5" t="s">
         <v>53</v>
@@ -2479,7 +2486,7 @@
       <c r="S37" s="8"/>
     </row>
     <row r="38" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="28"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="9"/>
       <c r="C38" s="5" t="s">
         <v>54</v>
@@ -2526,7 +2533,7 @@
       <c r="S38" s="8"/>
     </row>
     <row r="39" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="28"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="9"/>
       <c r="C39" s="5" t="s">
         <v>55</v>
@@ -2575,7 +2582,7 @@
       <c r="S39" s="8"/>
     </row>
     <row r="40" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="28"/>
+      <c r="A40" s="40"/>
       <c r="B40" s="9"/>
       <c r="C40" s="5" t="s">
         <v>75</v>
@@ -2626,7 +2633,7 @@
       <c r="S40" s="8"/>
     </row>
     <row r="41" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="28"/>
+      <c r="A41" s="40"/>
       <c r="B41" s="9"/>
       <c r="C41" s="5" t="s">
         <v>56</v>
@@ -2677,7 +2684,7 @@
       <c r="S41" s="8"/>
     </row>
     <row r="42" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="28"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="9"/>
       <c r="C42" s="5" t="s">
         <v>57</v>
@@ -2724,7 +2731,7 @@
       <c r="S42" s="8"/>
     </row>
     <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="29"/>
+      <c r="A43" s="39"/>
       <c r="B43" s="9"/>
       <c r="C43" s="5" t="s">
         <v>58</v>
@@ -2775,7 +2782,7 @@
       <c r="S43" s="8"/>
     </row>
     <row r="44" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="38" t="s">
         <v>69</v>
       </c>
       <c r="B44" s="9"/>
@@ -2828,7 +2835,7 @@
       <c r="S44" s="8"/>
     </row>
     <row r="45" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="28"/>
+      <c r="A45" s="40"/>
       <c r="B45" s="9"/>
       <c r="C45" s="5" t="s">
         <v>60</v>
@@ -2875,7 +2882,7 @@
       <c r="S45" s="8"/>
     </row>
     <row r="46" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="29"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="9"/>
       <c r="C46" s="5" t="s">
         <v>61</v>
@@ -2926,7 +2933,7 @@
       <c r="S46" s="8"/>
     </row>
     <row r="47" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="38" t="s">
         <v>70</v>
       </c>
       <c r="B47" s="9"/>
@@ -2979,7 +2986,7 @@
       <c r="S47" s="8"/>
     </row>
     <row r="48" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="29"/>
+      <c r="A48" s="39"/>
       <c r="B48" s="10"/>
       <c r="C48" s="11" t="s">
         <v>63</v>
@@ -3076,6 +3083,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="P8:P13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="N8:N13"/>
+    <mergeCell ref="O8:O13"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:K7"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="K8:K13"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="Q7:S7"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="B8:B13"/>
@@ -3092,28 +3121,6 @@
     <mergeCell ref="J8:J13"/>
     <mergeCell ref="L8:L13"/>
     <mergeCell ref="M8:M13"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="K8:K13"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="P8:P13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="N8:N13"/>
-    <mergeCell ref="O8:O13"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentos/ciclo1/TASK_TEAM.xlsx
+++ b/documentos/ciclo1/TASK_TEAM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="19440" windowHeight="7815"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="19440" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -553,6 +553,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -562,6 +571,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -569,30 +593,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -898,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,16 +923,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -941,9 +941,9 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
@@ -957,35 +957,35 @@
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="35">
-        <v>1</v>
-      </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
+      <c r="F5" s="33">
+        <v>1</v>
+      </c>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -1020,171 +1020,171 @@
       <c r="S7" s="26"/>
     </row>
     <row r="8" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="27" t="s">
+      <c r="K8" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="30" t="s">
+      <c r="L8" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="27" t="s">
+      <c r="M8" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="27" t="s">
+      <c r="N8" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="27" t="s">
+      <c r="O8" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="27" t="s">
+      <c r="P8" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="27" t="s">
+      <c r="Q8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="27" t="s">
+      <c r="R8" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="27" t="s">
+      <c r="S8" s="30" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
     </row>
     <row r="13" spans="1:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
     </row>
     <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="27" t="s">
         <v>73</v>
       </c>
       <c r="B14" s="4"/>
@@ -1246,7 +1246,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="9"/>
       <c r="C15" s="5" t="s">
         <v>32</v>
@@ -1306,7 +1306,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="39"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="9"/>
       <c r="C16" s="5" t="s">
         <v>33</v>
@@ -1366,7 +1366,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="27" t="s">
         <v>64</v>
       </c>
       <c r="B17" s="9"/>
@@ -1428,7 +1428,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="9"/>
       <c r="C18" s="5" t="s">
         <v>35</v>
@@ -1488,7 +1488,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="39"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="9"/>
       <c r="C19" s="5" t="s">
         <v>74</v>
@@ -1548,7 +1548,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="27" t="s">
         <v>65</v>
       </c>
       <c r="B20" s="9"/>
@@ -1603,7 +1603,7 @@
       <c r="S20" s="21"/>
     </row>
     <row r="21" spans="1:19" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="9"/>
       <c r="C21" s="5" t="s">
         <v>37</v>
@@ -1656,7 +1656,7 @@
       <c r="S21" s="21"/>
     </row>
     <row r="22" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="9"/>
       <c r="C22" s="5" t="s">
         <v>38</v>
@@ -1709,7 +1709,7 @@
       <c r="S22" s="21"/>
     </row>
     <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="40"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="9"/>
       <c r="C23" s="5" t="s">
         <v>39</v>
@@ -1762,7 +1762,7 @@
       <c r="S23" s="21"/>
     </row>
     <row r="24" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="9"/>
       <c r="C24" s="5" t="s">
         <v>40</v>
@@ -1810,12 +1810,14 @@
         <f t="shared" si="3"/>
         <v>27.099999999999998</v>
       </c>
-      <c r="Q24" s="21"/>
+      <c r="Q24" s="21">
+        <v>3</v>
+      </c>
       <c r="R24" s="8"/>
       <c r="S24" s="21"/>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="9"/>
       <c r="C25" s="5" t="s">
         <v>41</v>
@@ -1868,7 +1870,7 @@
       <c r="S25" s="21"/>
     </row>
     <row r="26" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="39"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="9"/>
       <c r="C26" s="5" t="s">
         <v>42</v>
@@ -1919,7 +1921,7 @@
       <c r="S26" s="21"/>
     </row>
     <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="28" t="s">
         <v>66</v>
       </c>
       <c r="B27" s="9"/>
@@ -1972,7 +1974,7 @@
       <c r="S27" s="8"/>
     </row>
     <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="40"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="9"/>
       <c r="C28" s="5" t="s">
         <v>44</v>
@@ -2023,7 +2025,7 @@
       <c r="S28" s="8"/>
     </row>
     <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="9"/>
       <c r="C29" s="5" t="s">
         <v>45</v>
@@ -2074,7 +2076,7 @@
       <c r="S29" s="8"/>
     </row>
     <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="9"/>
       <c r="C30" s="5" t="s">
         <v>46</v>
@@ -2125,7 +2127,7 @@
       <c r="S30" s="8"/>
     </row>
     <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="27" t="s">
         <v>67</v>
       </c>
       <c r="B31" s="9"/>
@@ -2178,7 +2180,7 @@
       <c r="S31" s="8"/>
     </row>
     <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="9"/>
       <c r="C32" s="5" t="s">
         <v>48</v>
@@ -2229,7 +2231,7 @@
       <c r="S32" s="8"/>
     </row>
     <row r="33" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="40"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="9"/>
       <c r="C33" s="5" t="s">
         <v>49</v>
@@ -2280,7 +2282,7 @@
       <c r="S33" s="8"/>
     </row>
     <row r="34" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="40"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="9"/>
       <c r="C34" s="5" t="s">
         <v>50</v>
@@ -2331,7 +2333,7 @@
       <c r="S34" s="8"/>
     </row>
     <row r="35" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="39"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="9"/>
       <c r="C35" s="5" t="s">
         <v>51</v>
@@ -2382,7 +2384,7 @@
       <c r="S35" s="8"/>
     </row>
     <row r="36" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="27" t="s">
         <v>68</v>
       </c>
       <c r="B36" s="9"/>
@@ -2435,7 +2437,7 @@
       <c r="S36" s="8"/>
     </row>
     <row r="37" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="40"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="9"/>
       <c r="C37" s="5" t="s">
         <v>53</v>
@@ -2486,7 +2488,7 @@
       <c r="S37" s="8"/>
     </row>
     <row r="38" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="40"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="9"/>
       <c r="C38" s="5" t="s">
         <v>54</v>
@@ -2533,7 +2535,7 @@
       <c r="S38" s="8"/>
     </row>
     <row r="39" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="40"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="9"/>
       <c r="C39" s="5" t="s">
         <v>55</v>
@@ -2582,7 +2584,7 @@
       <c r="S39" s="8"/>
     </row>
     <row r="40" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="40"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="9"/>
       <c r="C40" s="5" t="s">
         <v>75</v>
@@ -2633,7 +2635,7 @@
       <c r="S40" s="8"/>
     </row>
     <row r="41" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="40"/>
+      <c r="A41" s="28"/>
       <c r="B41" s="9"/>
       <c r="C41" s="5" t="s">
         <v>56</v>
@@ -2684,7 +2686,7 @@
       <c r="S41" s="8"/>
     </row>
     <row r="42" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="40"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="9"/>
       <c r="C42" s="5" t="s">
         <v>57</v>
@@ -2731,7 +2733,7 @@
       <c r="S42" s="8"/>
     </row>
     <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="39"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="9"/>
       <c r="C43" s="5" t="s">
         <v>58</v>
@@ -2782,7 +2784,7 @@
       <c r="S43" s="8"/>
     </row>
     <row r="44" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="27" t="s">
         <v>69</v>
       </c>
       <c r="B44" s="9"/>
@@ -2835,7 +2837,7 @@
       <c r="S44" s="8"/>
     </row>
     <row r="45" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="40"/>
+      <c r="A45" s="28"/>
       <c r="B45" s="9"/>
       <c r="C45" s="5" t="s">
         <v>60</v>
@@ -2882,7 +2884,7 @@
       <c r="S45" s="8"/>
     </row>
     <row r="46" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="39"/>
+      <c r="A46" s="29"/>
       <c r="B46" s="9"/>
       <c r="C46" s="5" t="s">
         <v>61</v>
@@ -2933,7 +2935,7 @@
       <c r="S46" s="8"/>
     </row>
     <row r="47" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="27" t="s">
         <v>70</v>
       </c>
       <c r="B47" s="9"/>
@@ -2986,7 +2988,7 @@
       <c r="S47" s="8"/>
     </row>
     <row r="48" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="39"/>
+      <c r="A48" s="29"/>
       <c r="B48" s="10"/>
       <c r="C48" s="11" t="s">
         <v>63</v>
@@ -3083,28 +3085,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="P8:P13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="N8:N13"/>
-    <mergeCell ref="O8:O13"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:K7"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="K8:K13"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="Q7:S7"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="B8:B13"/>
@@ -3121,6 +3101,28 @@
     <mergeCell ref="J8:J13"/>
     <mergeCell ref="L8:L13"/>
     <mergeCell ref="M8:M13"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="K8:K13"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="P8:P13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="N8:N13"/>
+    <mergeCell ref="O8:O13"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentos/ciclo1/TASK_TEAM.xlsx
+++ b/documentos/ciclo1/TASK_TEAM.xlsx
@@ -898,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/documentos/ciclo1/TASK_TEAM.xlsx
+++ b/documentos/ciclo1/TASK_TEAM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="19440" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="255" windowWidth="19440" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -135,9 +135,6 @@
     <t>Definir la configuracion control process</t>
   </si>
   <si>
-    <t>Generar listado de tareas de la semana</t>
-  </si>
-  <si>
     <t>Realizar plan de calidad(Definir estándares)</t>
   </si>
   <si>
@@ -244,6 +241,9 @@
   </si>
   <si>
     <t>Inspección detallada de pruebas</t>
+  </si>
+  <si>
+    <t>Generar listado de tareas del ciclo</t>
   </si>
 </sst>
 </file>
@@ -553,46 +553,46 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -898,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,16 +923,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -941,9 +941,9 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
@@ -957,35 +957,35 @@
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="33">
-        <v>1</v>
-      </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
+      <c r="F5" s="35">
+        <v>1</v>
+      </c>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -1020,172 +1020,172 @@
       <c r="S7" s="26"/>
     </row>
     <row r="8" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="J8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="K8" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="38" t="s">
+      <c r="L8" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="30" t="s">
+      <c r="M8" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="30" t="s">
+      <c r="N8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="30" t="s">
+      <c r="O8" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="30" t="s">
+      <c r="P8" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="30" t="s">
+      <c r="Q8" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="30" t="s">
+      <c r="R8" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="30" t="s">
+      <c r="S8" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
     </row>
     <row r="13" spans="1:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
     </row>
     <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
-        <v>73</v>
+      <c r="A14" s="38" t="s">
+        <v>72</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="5" t="s">
@@ -1218,7 +1218,7 @@
         <v>10</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M14" s="21">
         <v>2</v>
@@ -1246,7 +1246,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="9"/>
       <c r="C15" s="5" t="s">
         <v>32</v>
@@ -1278,7 +1278,7 @@
         <v>15</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M15" s="21">
         <v>5</v>
@@ -1306,7 +1306,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="9"/>
       <c r="C16" s="5" t="s">
         <v>33</v>
@@ -1338,7 +1338,7 @@
         <v>17.5</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M16" s="21">
         <v>1</v>
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="R16" s="21">
-        <f t="shared" ref="R16:R19" si="1">Q16+R15</f>
+        <f t="shared" ref="R16:R26" si="1">Q16+R15</f>
         <v>16</v>
       </c>
       <c r="S16" s="21">
@@ -1366,8 +1366,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
-        <v>64</v>
+      <c r="A17" s="38" t="s">
+        <v>63</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="5" t="s">
@@ -1400,7 +1400,7 @@
         <v>22.5</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M17" s="21">
         <v>1</v>
@@ -1428,7 +1428,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="9"/>
       <c r="C18" s="5" t="s">
         <v>35</v>
@@ -1460,7 +1460,7 @@
         <v>28</v>
       </c>
       <c r="L18" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M18" s="21">
         <v>1</v>
@@ -1488,10 +1488,10 @@
       </c>
     </row>
     <row r="19" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="9"/>
       <c r="C19" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" s="19">
         <v>1</v>
@@ -1520,7 +1520,7 @@
         <v>28.7</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M19" s="21">
         <v>2</v>
@@ -1548,8 +1548,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
-        <v>65</v>
+      <c r="A20" s="38" t="s">
+        <v>64</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="5" t="s">
@@ -1582,7 +1582,7 @@
         <v>31.7</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M20" s="21">
         <v>1</v>
@@ -1598,12 +1598,19 @@
         <f>SUM(O20+P19)</f>
         <v>21.099999999999998</v>
       </c>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
+      <c r="Q20" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="R20" s="21">
+        <f t="shared" si="1"/>
+        <v>28.5</v>
+      </c>
+      <c r="S20" s="21">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="1:19" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="9"/>
       <c r="C21" s="5" t="s">
         <v>37</v>
@@ -1635,7 +1642,7 @@
         <v>33.200000000000003</v>
       </c>
       <c r="L21" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M21" s="21">
         <v>0.5</v>
@@ -1651,12 +1658,19 @@
         <f t="shared" si="3"/>
         <v>22.099999999999998</v>
       </c>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
+      <c r="Q21" s="21">
+        <v>1</v>
+      </c>
+      <c r="R21" s="21">
+        <f t="shared" si="1"/>
+        <v>29.5</v>
+      </c>
+      <c r="S21" s="21">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="9"/>
       <c r="C22" s="5" t="s">
         <v>38</v>
@@ -1688,7 +1702,7 @@
         <v>35.5</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M22" s="21">
         <v>1</v>
@@ -1704,15 +1718,22 @@
         <f t="shared" si="3"/>
         <v>23.599999999999998</v>
       </c>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="21"/>
+      <c r="Q22" s="21">
+        <v>1</v>
+      </c>
+      <c r="R22" s="21">
+        <f t="shared" si="1"/>
+        <v>30.5</v>
+      </c>
+      <c r="S22" s="21">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="9"/>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="D23" s="19">
         <v>5</v>
@@ -1741,7 +1762,7 @@
         <v>38.5</v>
       </c>
       <c r="L23" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M23" s="21">
         <v>1</v>
@@ -1757,15 +1778,22 @@
         <f>SUM(O23+P22)</f>
         <v>25.599999999999998</v>
       </c>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="21"/>
+      <c r="Q23" s="21">
+        <v>3</v>
+      </c>
+      <c r="R23" s="21">
+        <f t="shared" si="1"/>
+        <v>33.5</v>
+      </c>
+      <c r="S23" s="21">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="9"/>
       <c r="C24" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="19">
         <v>5</v>
@@ -1794,7 +1822,7 @@
         <v>40.700000000000003</v>
       </c>
       <c r="L24" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M24" s="21">
         <v>3</v>
@@ -1813,14 +1841,19 @@
       <c r="Q24" s="21">
         <v>3</v>
       </c>
-      <c r="R24" s="8"/>
-      <c r="S24" s="21"/>
+      <c r="R24" s="21">
+        <f t="shared" si="1"/>
+        <v>36.5</v>
+      </c>
+      <c r="S24" s="21">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="9"/>
       <c r="C25" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" s="19">
         <v>1</v>
@@ -1849,7 +1882,7 @@
         <v>43.5</v>
       </c>
       <c r="L25" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M25" s="21">
         <v>2</v>
@@ -1865,15 +1898,22 @@
         <f t="shared" si="3"/>
         <v>28.999999999999996</v>
       </c>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="21"/>
+      <c r="Q25" s="21">
+        <v>1</v>
+      </c>
+      <c r="R25" s="21">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+      <c r="S25" s="21">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="9"/>
       <c r="C26" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26" s="19">
         <v>5</v>
@@ -1902,12 +1942,14 @@
         <v>58.5</v>
       </c>
       <c r="L26" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M26" s="21">
         <v>5</v>
       </c>
-      <c r="N26" s="8"/>
+      <c r="N26" s="21">
+        <v>3</v>
+      </c>
       <c r="O26" s="21">
         <f>ROUND(J26/J49*100,1)</f>
         <v>10</v>
@@ -1916,17 +1958,24 @@
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="21"/>
+      <c r="Q26" s="21">
+        <v>1</v>
+      </c>
+      <c r="R26" s="21">
+        <f t="shared" si="1"/>
+        <v>38.5</v>
+      </c>
+      <c r="S26" s="21">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
-        <v>66</v>
+      <c r="A27" s="40" t="s">
+        <v>65</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" s="19">
         <v>3</v>
@@ -1955,7 +2004,7 @@
         <v>64.5</v>
       </c>
       <c r="L27" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M27" s="21">
         <v>1</v>
@@ -1974,10 +2023,10 @@
       <c r="S27" s="8"/>
     </row>
     <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="9"/>
       <c r="C28" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" s="19">
         <v>3</v>
@@ -2006,7 +2055,7 @@
         <v>67.5</v>
       </c>
       <c r="L28" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M28" s="21">
         <v>2</v>
@@ -2025,10 +2074,10 @@
       <c r="S28" s="8"/>
     </row>
     <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="9"/>
       <c r="C29" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29" s="19">
         <v>2</v>
@@ -2057,7 +2106,7 @@
         <v>70.5</v>
       </c>
       <c r="L29" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M29" s="21">
         <v>1</v>
@@ -2076,10 +2125,10 @@
       <c r="S29" s="8"/>
     </row>
     <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="9"/>
       <c r="C30" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" s="19">
         <v>2</v>
@@ -2108,7 +2157,7 @@
         <v>72.5</v>
       </c>
       <c r="L30" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M30" s="21">
         <v>1</v>
@@ -2127,12 +2176,12 @@
       <c r="S30" s="8"/>
     </row>
     <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="27" t="s">
-        <v>67</v>
+      <c r="A31" s="38" t="s">
+        <v>66</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31" s="19">
         <v>2</v>
@@ -2161,7 +2210,7 @@
         <v>74.5</v>
       </c>
       <c r="L31" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M31" s="21">
         <v>3</v>
@@ -2180,10 +2229,10 @@
       <c r="S31" s="8"/>
     </row>
     <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="9"/>
       <c r="C32" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D32" s="19">
         <v>2</v>
@@ -2212,7 +2261,7 @@
         <v>77.5</v>
       </c>
       <c r="L32" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M32" s="21">
         <v>2</v>
@@ -2231,10 +2280,10 @@
       <c r="S32" s="8"/>
     </row>
     <row r="33" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="9"/>
       <c r="C33" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" s="19">
         <v>2</v>
@@ -2263,7 +2312,7 @@
         <v>79</v>
       </c>
       <c r="L33" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M33" s="21">
         <v>1</v>
@@ -2282,10 +2331,10 @@
       <c r="S33" s="8"/>
     </row>
     <row r="34" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="9"/>
       <c r="C34" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D34" s="19">
         <v>2</v>
@@ -2314,7 +2363,7 @@
         <v>82</v>
       </c>
       <c r="L34" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M34" s="21">
         <v>0.7</v>
@@ -2333,10 +2382,10 @@
       <c r="S34" s="8"/>
     </row>
     <row r="35" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="9"/>
       <c r="C35" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D35" s="19">
         <v>5</v>
@@ -2365,7 +2414,7 @@
         <v>85</v>
       </c>
       <c r="L35" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M35" s="21">
         <v>0.7</v>
@@ -2384,12 +2433,12 @@
       <c r="S35" s="8"/>
     </row>
     <row r="36" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="27" t="s">
-        <v>68</v>
+      <c r="A36" s="38" t="s">
+        <v>67</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D36" s="19">
         <v>2</v>
@@ -2418,7 +2467,7 @@
         <v>88</v>
       </c>
       <c r="L36" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M36" s="21">
         <v>1</v>
@@ -2437,10 +2486,10 @@
       <c r="S36" s="8"/>
     </row>
     <row r="37" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="28"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="9"/>
       <c r="C37" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D37" s="19">
         <v>1</v>
@@ -2469,7 +2518,7 @@
         <v>91.5</v>
       </c>
       <c r="L37" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M37" s="21">
         <v>3</v>
@@ -2488,10 +2537,10 @@
       <c r="S37" s="8"/>
     </row>
     <row r="38" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="28"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="9"/>
       <c r="C38" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D38" s="19">
         <v>1</v>
@@ -2535,10 +2584,10 @@
       <c r="S38" s="8"/>
     </row>
     <row r="39" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="28"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="9"/>
       <c r="C39" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D39" s="19">
         <v>1</v>
@@ -2567,7 +2616,7 @@
         <v>95.5</v>
       </c>
       <c r="L39" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M39" s="21"/>
       <c r="N39" s="8"/>
@@ -2584,10 +2633,10 @@
       <c r="S39" s="8"/>
     </row>
     <row r="40" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="28"/>
+      <c r="A40" s="40"/>
       <c r="B40" s="9"/>
       <c r="C40" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D40" s="19">
         <v>2</v>
@@ -2616,7 +2665,7 @@
         <v>97</v>
       </c>
       <c r="L40" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M40" s="21">
         <v>0.7</v>
@@ -2635,10 +2684,10 @@
       <c r="S40" s="8"/>
     </row>
     <row r="41" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="28"/>
+      <c r="A41" s="40"/>
       <c r="B41" s="9"/>
       <c r="C41" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D41" s="19">
         <v>5</v>
@@ -2667,7 +2716,7 @@
         <v>122</v>
       </c>
       <c r="L41" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M41" s="21">
         <v>646</v>
@@ -2686,10 +2735,10 @@
       <c r="S41" s="8"/>
     </row>
     <row r="42" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="28"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="9"/>
       <c r="C42" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D42" s="19">
         <v>5</v>
@@ -2733,10 +2782,10 @@
       <c r="S42" s="8"/>
     </row>
     <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="29"/>
+      <c r="A43" s="39"/>
       <c r="B43" s="9"/>
       <c r="C43" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D43" s="19">
         <v>1</v>
@@ -2765,7 +2814,7 @@
         <v>125</v>
       </c>
       <c r="L43" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M43" s="21">
         <v>0.7</v>
@@ -2784,12 +2833,12 @@
       <c r="S43" s="8"/>
     </row>
     <row r="44" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="27" t="s">
-        <v>69</v>
+      <c r="A44" s="38" t="s">
+        <v>68</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D44" s="19">
         <v>1</v>
@@ -2818,7 +2867,7 @@
         <v>130</v>
       </c>
       <c r="L44" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M44" s="21">
         <v>6</v>
@@ -2837,10 +2886,10 @@
       <c r="S44" s="8"/>
     </row>
     <row r="45" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="28"/>
+      <c r="A45" s="40"/>
       <c r="B45" s="9"/>
       <c r="C45" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D45" s="19">
         <v>5</v>
@@ -2884,10 +2933,10 @@
       <c r="S45" s="8"/>
     </row>
     <row r="46" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="29"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="9"/>
       <c r="C46" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D46" s="19">
         <v>2</v>
@@ -2916,7 +2965,7 @@
         <v>138</v>
       </c>
       <c r="L46" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M46" s="21">
         <v>10</v>
@@ -2935,12 +2984,12 @@
       <c r="S46" s="8"/>
     </row>
     <row r="47" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="27" t="s">
-        <v>70</v>
+      <c r="A47" s="38" t="s">
+        <v>69</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D47" s="19">
         <v>5</v>
@@ -2969,7 +3018,7 @@
         <v>143</v>
       </c>
       <c r="L47" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M47" s="21">
         <v>5</v>
@@ -2988,10 +3037,10 @@
       <c r="S47" s="8"/>
     </row>
     <row r="48" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="29"/>
+      <c r="A48" s="39"/>
       <c r="B48" s="10"/>
       <c r="C48" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D48" s="20">
         <v>5</v>
@@ -3020,7 +3069,7 @@
         <v>150.5</v>
       </c>
       <c r="L48" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M48" s="22">
         <v>5</v>
@@ -3085,6 +3134,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="P8:P13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="N8:N13"/>
+    <mergeCell ref="O8:O13"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:K7"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="K8:K13"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="Q7:S7"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="B8:B13"/>
@@ -3101,28 +3172,6 @@
     <mergeCell ref="J8:J13"/>
     <mergeCell ref="L8:L13"/>
     <mergeCell ref="M8:M13"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="K8:K13"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="P8:P13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="N8:N13"/>
-    <mergeCell ref="O8:O13"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentos/ciclo1/TASK_TEAM.xlsx
+++ b/documentos/ciclo1/TASK_TEAM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="255" windowWidth="19440" windowHeight="7695"/>
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -553,6 +553,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -562,6 +571,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -569,30 +593,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -898,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,16 +923,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -941,9 +941,9 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
@@ -957,35 +957,35 @@
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="35">
-        <v>1</v>
-      </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
+      <c r="F5" s="33">
+        <v>1</v>
+      </c>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -1020,171 +1020,171 @@
       <c r="S7" s="26"/>
     </row>
     <row r="8" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="27" t="s">
+      <c r="K8" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="30" t="s">
+      <c r="L8" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="27" t="s">
+      <c r="M8" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="27" t="s">
+      <c r="N8" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="27" t="s">
+      <c r="O8" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="27" t="s">
+      <c r="P8" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="27" t="s">
+      <c r="Q8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="27" t="s">
+      <c r="R8" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="27" t="s">
+      <c r="S8" s="30" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
     </row>
     <row r="13" spans="1:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
     </row>
     <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="27" t="s">
         <v>72</v>
       </c>
       <c r="B14" s="4"/>
@@ -1235,18 +1235,18 @@
         <v>6.6</v>
       </c>
       <c r="Q14" s="21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R14" s="21">
         <f>Q14</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S14" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="9"/>
       <c r="C15" s="5" t="s">
         <v>32</v>
@@ -1295,7 +1295,7 @@
         <v>9.8999999999999986</v>
       </c>
       <c r="Q15" s="21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R15" s="21">
         <f>Q15+R14</f>
@@ -1306,7 +1306,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="39"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="9"/>
       <c r="C16" s="5" t="s">
         <v>33</v>
@@ -1355,18 +1355,18 @@
         <v>11.599999999999998</v>
       </c>
       <c r="Q16" s="21">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="R16" s="21">
         <f t="shared" ref="R16:R26" si="1">Q16+R15</f>
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="S16" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="27" t="s">
         <v>63</v>
       </c>
       <c r="B17" s="9"/>
@@ -1421,14 +1421,14 @@
       </c>
       <c r="R17" s="21">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>24.5</v>
       </c>
       <c r="S17" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="9"/>
       <c r="C18" s="5" t="s">
         <v>35</v>
@@ -1481,14 +1481,14 @@
       </c>
       <c r="R18" s="21">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>28.5</v>
       </c>
       <c r="S18" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="39"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="9"/>
       <c r="C19" s="5" t="s">
         <v>73</v>
@@ -1541,14 +1541,14 @@
       </c>
       <c r="R19" s="21">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>29.5</v>
       </c>
       <c r="S19" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="27" t="s">
         <v>64</v>
       </c>
       <c r="B20" s="9"/>
@@ -1599,18 +1599,18 @@
         <v>21.099999999999998</v>
       </c>
       <c r="Q20" s="21">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="R20" s="21">
         <f t="shared" si="1"/>
-        <v>28.5</v>
+        <v>31.5</v>
       </c>
       <c r="S20" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="9"/>
       <c r="C21" s="5" t="s">
         <v>37</v>
@@ -1659,18 +1659,18 @@
         <v>22.099999999999998</v>
       </c>
       <c r="Q21" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R21" s="21">
         <f t="shared" si="1"/>
-        <v>29.5</v>
+        <v>33.5</v>
       </c>
       <c r="S21" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="9"/>
       <c r="C22" s="5" t="s">
         <v>38</v>
@@ -1719,18 +1719,18 @@
         <v>23.599999999999998</v>
       </c>
       <c r="Q22" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R22" s="21">
         <f t="shared" si="1"/>
-        <v>30.5</v>
+        <v>35.5</v>
       </c>
       <c r="S22" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="40"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="9"/>
       <c r="C23" s="5" t="s">
         <v>75</v>
@@ -1783,14 +1783,14 @@
       </c>
       <c r="R23" s="21">
         <f t="shared" si="1"/>
-        <v>33.5</v>
+        <v>38.5</v>
       </c>
       <c r="S23" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="9"/>
       <c r="C24" s="5" t="s">
         <v>39</v>
@@ -1843,14 +1843,14 @@
       </c>
       <c r="R24" s="21">
         <f t="shared" si="1"/>
-        <v>36.5</v>
+        <v>41.5</v>
       </c>
       <c r="S24" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="9"/>
       <c r="C25" s="5" t="s">
         <v>40</v>
@@ -1899,18 +1899,18 @@
         <v>28.999999999999996</v>
       </c>
       <c r="Q25" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R25" s="21">
         <f t="shared" si="1"/>
-        <v>37.5</v>
+        <v>43.5</v>
       </c>
       <c r="S25" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="39"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="9"/>
       <c r="C26" s="5" t="s">
         <v>41</v>
@@ -1959,18 +1959,18 @@
         <v>39</v>
       </c>
       <c r="Q26" s="21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R26" s="21">
         <f t="shared" si="1"/>
-        <v>38.5</v>
+        <v>48.5</v>
       </c>
       <c r="S26" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="28" t="s">
         <v>65</v>
       </c>
       <c r="B27" s="9"/>
@@ -2023,7 +2023,7 @@
       <c r="S27" s="8"/>
     </row>
     <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="40"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="9"/>
       <c r="C28" s="5" t="s">
         <v>43</v>
@@ -2074,7 +2074,7 @@
       <c r="S28" s="8"/>
     </row>
     <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="9"/>
       <c r="C29" s="5" t="s">
         <v>44</v>
@@ -2125,7 +2125,7 @@
       <c r="S29" s="8"/>
     </row>
     <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="9"/>
       <c r="C30" s="5" t="s">
         <v>45</v>
@@ -2176,7 +2176,7 @@
       <c r="S30" s="8"/>
     </row>
     <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="27" t="s">
         <v>66</v>
       </c>
       <c r="B31" s="9"/>
@@ -2229,7 +2229,7 @@
       <c r="S31" s="8"/>
     </row>
     <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="9"/>
       <c r="C32" s="5" t="s">
         <v>47</v>
@@ -2280,7 +2280,7 @@
       <c r="S32" s="8"/>
     </row>
     <row r="33" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="40"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="9"/>
       <c r="C33" s="5" t="s">
         <v>48</v>
@@ -2331,7 +2331,7 @@
       <c r="S33" s="8"/>
     </row>
     <row r="34" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="40"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="9"/>
       <c r="C34" s="5" t="s">
         <v>49</v>
@@ -2382,7 +2382,7 @@
       <c r="S34" s="8"/>
     </row>
     <row r="35" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="39"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="9"/>
       <c r="C35" s="5" t="s">
         <v>50</v>
@@ -2433,7 +2433,7 @@
       <c r="S35" s="8"/>
     </row>
     <row r="36" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="27" t="s">
         <v>67</v>
       </c>
       <c r="B36" s="9"/>
@@ -2486,7 +2486,7 @@
       <c r="S36" s="8"/>
     </row>
     <row r="37" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="40"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="9"/>
       <c r="C37" s="5" t="s">
         <v>52</v>
@@ -2537,7 +2537,7 @@
       <c r="S37" s="8"/>
     </row>
     <row r="38" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="40"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="9"/>
       <c r="C38" s="5" t="s">
         <v>53</v>
@@ -2584,7 +2584,7 @@
       <c r="S38" s="8"/>
     </row>
     <row r="39" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="40"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="9"/>
       <c r="C39" s="5" t="s">
         <v>54</v>
@@ -2633,7 +2633,7 @@
       <c r="S39" s="8"/>
     </row>
     <row r="40" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="40"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="9"/>
       <c r="C40" s="5" t="s">
         <v>74</v>
@@ -2684,7 +2684,7 @@
       <c r="S40" s="8"/>
     </row>
     <row r="41" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="40"/>
+      <c r="A41" s="28"/>
       <c r="B41" s="9"/>
       <c r="C41" s="5" t="s">
         <v>55</v>
@@ -2735,7 +2735,7 @@
       <c r="S41" s="8"/>
     </row>
     <row r="42" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="40"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="9"/>
       <c r="C42" s="5" t="s">
         <v>56</v>
@@ -2782,7 +2782,7 @@
       <c r="S42" s="8"/>
     </row>
     <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="39"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="9"/>
       <c r="C43" s="5" t="s">
         <v>57</v>
@@ -2833,7 +2833,7 @@
       <c r="S43" s="8"/>
     </row>
     <row r="44" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="27" t="s">
         <v>68</v>
       </c>
       <c r="B44" s="9"/>
@@ -2886,7 +2886,7 @@
       <c r="S44" s="8"/>
     </row>
     <row r="45" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="40"/>
+      <c r="A45" s="28"/>
       <c r="B45" s="9"/>
       <c r="C45" s="5" t="s">
         <v>59</v>
@@ -2933,7 +2933,7 @@
       <c r="S45" s="8"/>
     </row>
     <row r="46" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="39"/>
+      <c r="A46" s="29"/>
       <c r="B46" s="9"/>
       <c r="C46" s="5" t="s">
         <v>60</v>
@@ -2984,7 +2984,7 @@
       <c r="S46" s="8"/>
     </row>
     <row r="47" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="27" t="s">
         <v>69</v>
       </c>
       <c r="B47" s="9"/>
@@ -3037,7 +3037,7 @@
       <c r="S47" s="8"/>
     </row>
     <row r="48" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="39"/>
+      <c r="A48" s="29"/>
       <c r="B48" s="10"/>
       <c r="C48" s="11" t="s">
         <v>62</v>
@@ -3134,28 +3134,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="P8:P13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="N8:N13"/>
-    <mergeCell ref="O8:O13"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:K7"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="K8:K13"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="Q7:S7"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="B8:B13"/>
@@ -3172,6 +3150,28 @@
     <mergeCell ref="J8:J13"/>
     <mergeCell ref="L8:L13"/>
     <mergeCell ref="M8:M13"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="K8:K13"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="P8:P13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="N8:N13"/>
+    <mergeCell ref="O8:O13"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentos/ciclo1/TASK_TEAM.xlsx
+++ b/documentos/ciclo1/TASK_TEAM.xlsx
@@ -553,46 +553,46 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -898,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,16 +923,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -941,9 +941,9 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
@@ -957,35 +957,35 @@
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="33">
-        <v>1</v>
-      </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
+      <c r="F5" s="35">
+        <v>1</v>
+      </c>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -1020,171 +1020,171 @@
       <c r="S7" s="26"/>
     </row>
     <row r="8" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="J8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="K8" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="38" t="s">
+      <c r="L8" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="30" t="s">
+      <c r="M8" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="30" t="s">
+      <c r="N8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="30" t="s">
+      <c r="O8" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="30" t="s">
+      <c r="P8" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="30" t="s">
+      <c r="Q8" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="30" t="s">
+      <c r="R8" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="30" t="s">
+      <c r="S8" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
     </row>
     <row r="13" spans="1:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
     </row>
     <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="38" t="s">
         <v>72</v>
       </c>
       <c r="B14" s="4"/>
@@ -1246,7 +1246,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="9"/>
       <c r="C15" s="5" t="s">
         <v>32</v>
@@ -1306,7 +1306,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="9"/>
       <c r="C16" s="5" t="s">
         <v>33</v>
@@ -1366,7 +1366,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="38" t="s">
         <v>63</v>
       </c>
       <c r="B17" s="9"/>
@@ -1428,7 +1428,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="9"/>
       <c r="C18" s="5" t="s">
         <v>35</v>
@@ -1488,7 +1488,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="9"/>
       <c r="C19" s="5" t="s">
         <v>73</v>
@@ -1548,7 +1548,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="38" t="s">
         <v>64</v>
       </c>
       <c r="B20" s="9"/>
@@ -1610,7 +1610,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="9"/>
       <c r="C21" s="5" t="s">
         <v>37</v>
@@ -1670,7 +1670,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="9"/>
       <c r="C22" s="5" t="s">
         <v>38</v>
@@ -1730,7 +1730,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="9"/>
       <c r="C23" s="5" t="s">
         <v>75</v>
@@ -1790,7 +1790,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="9"/>
       <c r="C24" s="5" t="s">
         <v>39</v>
@@ -1850,7 +1850,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="9"/>
       <c r="C25" s="5" t="s">
         <v>40</v>
@@ -1910,7 +1910,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="9"/>
       <c r="C26" s="5" t="s">
         <v>41</v>
@@ -1959,18 +1959,18 @@
         <v>39</v>
       </c>
       <c r="Q26" s="21">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="R26" s="21">
         <f t="shared" si="1"/>
-        <v>48.5</v>
+        <v>55.5</v>
       </c>
       <c r="S26" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="40" t="s">
         <v>65</v>
       </c>
       <c r="B27" s="9"/>
@@ -2023,7 +2023,7 @@
       <c r="S27" s="8"/>
     </row>
     <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="9"/>
       <c r="C28" s="5" t="s">
         <v>43</v>
@@ -2074,7 +2074,7 @@
       <c r="S28" s="8"/>
     </row>
     <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="9"/>
       <c r="C29" s="5" t="s">
         <v>44</v>
@@ -2125,7 +2125,7 @@
       <c r="S29" s="8"/>
     </row>
     <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="9"/>
       <c r="C30" s="5" t="s">
         <v>45</v>
@@ -2176,7 +2176,7 @@
       <c r="S30" s="8"/>
     </row>
     <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="38" t="s">
         <v>66</v>
       </c>
       <c r="B31" s="9"/>
@@ -2229,7 +2229,7 @@
       <c r="S31" s="8"/>
     </row>
     <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="9"/>
       <c r="C32" s="5" t="s">
         <v>47</v>
@@ -2280,7 +2280,7 @@
       <c r="S32" s="8"/>
     </row>
     <row r="33" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="9"/>
       <c r="C33" s="5" t="s">
         <v>48</v>
@@ -2331,7 +2331,7 @@
       <c r="S33" s="8"/>
     </row>
     <row r="34" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="9"/>
       <c r="C34" s="5" t="s">
         <v>49</v>
@@ -2382,7 +2382,7 @@
       <c r="S34" s="8"/>
     </row>
     <row r="35" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="9"/>
       <c r="C35" s="5" t="s">
         <v>50</v>
@@ -2433,7 +2433,7 @@
       <c r="S35" s="8"/>
     </row>
     <row r="36" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="38" t="s">
         <v>67</v>
       </c>
       <c r="B36" s="9"/>
@@ -2486,7 +2486,7 @@
       <c r="S36" s="8"/>
     </row>
     <row r="37" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="28"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="9"/>
       <c r="C37" s="5" t="s">
         <v>52</v>
@@ -2537,7 +2537,7 @@
       <c r="S37" s="8"/>
     </row>
     <row r="38" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="28"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="9"/>
       <c r="C38" s="5" t="s">
         <v>53</v>
@@ -2584,7 +2584,7 @@
       <c r="S38" s="8"/>
     </row>
     <row r="39" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="28"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="9"/>
       <c r="C39" s="5" t="s">
         <v>54</v>
@@ -2633,7 +2633,7 @@
       <c r="S39" s="8"/>
     </row>
     <row r="40" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="28"/>
+      <c r="A40" s="40"/>
       <c r="B40" s="9"/>
       <c r="C40" s="5" t="s">
         <v>74</v>
@@ -2684,7 +2684,7 @@
       <c r="S40" s="8"/>
     </row>
     <row r="41" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="28"/>
+      <c r="A41" s="40"/>
       <c r="B41" s="9"/>
       <c r="C41" s="5" t="s">
         <v>55</v>
@@ -2735,7 +2735,7 @@
       <c r="S41" s="8"/>
     </row>
     <row r="42" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="28"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="9"/>
       <c r="C42" s="5" t="s">
         <v>56</v>
@@ -2782,7 +2782,7 @@
       <c r="S42" s="8"/>
     </row>
     <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="29"/>
+      <c r="A43" s="39"/>
       <c r="B43" s="9"/>
       <c r="C43" s="5" t="s">
         <v>57</v>
@@ -2833,7 +2833,7 @@
       <c r="S43" s="8"/>
     </row>
     <row r="44" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="38" t="s">
         <v>68</v>
       </c>
       <c r="B44" s="9"/>
@@ -2886,7 +2886,7 @@
       <c r="S44" s="8"/>
     </row>
     <row r="45" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="28"/>
+      <c r="A45" s="40"/>
       <c r="B45" s="9"/>
       <c r="C45" s="5" t="s">
         <v>59</v>
@@ -2933,7 +2933,7 @@
       <c r="S45" s="8"/>
     </row>
     <row r="46" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="29"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="9"/>
       <c r="C46" s="5" t="s">
         <v>60</v>
@@ -2984,7 +2984,7 @@
       <c r="S46" s="8"/>
     </row>
     <row r="47" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="38" t="s">
         <v>69</v>
       </c>
       <c r="B47" s="9"/>
@@ -3037,7 +3037,7 @@
       <c r="S47" s="8"/>
     </row>
     <row r="48" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="29"/>
+      <c r="A48" s="39"/>
       <c r="B48" s="10"/>
       <c r="C48" s="11" t="s">
         <v>62</v>
@@ -3134,6 +3134,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="P8:P13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="N8:N13"/>
+    <mergeCell ref="O8:O13"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:K7"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="K8:K13"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="Q7:S7"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="B8:B13"/>
@@ -3150,28 +3172,6 @@
     <mergeCell ref="J8:J13"/>
     <mergeCell ref="L8:L13"/>
     <mergeCell ref="M8:M13"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="K8:K13"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="P8:P13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="N8:N13"/>
-    <mergeCell ref="O8:O13"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
